--- a/acotur_huila_competitiva/output/excel/portuColombia_final.xlsx
+++ b/acotur_huila_competitiva/output/excel/portuColombia_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Caquetá" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Huila" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Putumayo" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tolima" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Caquetá" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Huila" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Putumayo" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Tolima" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,286 +439,4826 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Fuente</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Nombre</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Municipio</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>RNT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Descripción</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Categorías</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Certificaciones</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Redes Sociales</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Departamento</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Ciudad</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Detalle</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Dirección</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Teléfonos</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Imágenes</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Acotur</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>POSADA AMAZONIA</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>FLORENCIA</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>80365136265</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Posada Amazonia es un alojamiento rural ubicado a 25 minutos de Florencia, donde se conjuga naturaleza y paz a la par de la experiencia que se vive en un exótico lugar rico en fuentes hidográficas, donde  cada uno de sus alojamientos tienen particularidades especiales, además de las zonas comunes como kioskos en paja, piscina con agua natural, zona de hamacas, atractivos naturales como rio, cascadas y senderos que hacen de su estadia una vivencia única en la puerta de oro de la Amazonia.</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>posadaamazonia20@gmail.com</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.facebook.com/posadamazonia?mibextid=LQQJ4d</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>https://www.acotur.co/es/asociado/posada-amazonia-652</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>CAQUETA</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Acotur</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>KURIARA TRAVEL</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Florencia</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>56055</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Somos una Agencia de Viajes Operadora que ofrece paquetes ecoturisticos y de aventura, enfocados al conocimiento, la educación ambiental y el disfrute racional de las bellezas naturales; nos encontramos en la ciudad de Florencia conocida como la Puerta de Oro de la Amazonia Colombiana y a través de nuestros planes promocionamos la riqueza cultural  y natural del departamento de Caquetá.</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Ecoturismo, Turismo Rural, Turismo de Aventura</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Otro</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>administracion@kuriaratravel.com</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://web.facebook.com/KuriaraAgenciadeViajes</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>https://www.acotur.co/es/asociado/kuriara-travel-443</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>CAQUETA</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Acotur</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>AMAZONÍA TRAVEL</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Florencia</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>37807</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Somos una empresa que promueve el turismo de naturaleza y cultura regenerativo en el departamento del Caquetá, diseñamos viajes a la medida y tours de autor donde trabajamos con comunidades campesinas, indigenas, afros y firmantes de paz, además, en alianzas con otros actores, promovemos los demás destinos de la Amazonía Colombiana.</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>infoamazonia.travel@gmail.com</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://web.facebook.com/amazoniatravel?locale=es_LA</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>https://www.acotur.co/es/asociado/amazonÍa-travel-674</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>CAQUETA</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Acotur</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>EL HOREB PARAISO NATURAL Y ECOTURISTICO</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Florencia</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>409023640</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>El Horeb es una reserva natural y ecoturística ubicada en Belén de los Andaquies, Caquetá, la cual  inicia  operaciones desde el 2009, realizando actividades de turismo de naturaleza como:  turismo vivencial, treikking ecologico, senderismo,  avistamiento de aves, observación de flora y fauna. Además, los servicios turísticos son personalizados y responsables para generar sostenibilidad, ya que la capacidad de carga máxima es de 20 personas por día.</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Avistamiento de aves, Ecoturismo, Turismo Rural</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Ninguna de las anteriores</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>el.horeb@hotmail.com</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://www.facebook.com/elhorebnatural/?ref=pages_you_manage</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>https://www.acotur.co/es/asociado/el-horeb-paraiso-natural-y-ecoturistico-43</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>CAQUETA</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Acotur</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>RESERVA NATURAL EL DANUBIO</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Florencia</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>37900</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Está ubicada sobre la cordillera Oriental, en la Cuenca del Rio Bodoquero. Cuenta con tres senderos ecológicos que perumite al turista disfrutar de un momento de placer con los abundantes y exóticos recursos de flora y fauna. La Lista de atractivos que se pueden experimentar en la reserva es bastante larga, Los turistas que quieran practicar Senderismo lo pueden hacer en las cascadas Los helechos o Murui Muinane o enamorarse de la imponente cascada Moo Buinaima</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Avistamiento de aves, Ecoturismo, Turismo Rural, Turismo de Aventura</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Negocios Verdes, NTS-TS003, Otro</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>reservaeldanubio@gmail.com</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://www.facebook.com/ReservaElDanubioCaqueta/</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>https://www.acotur.co/es/asociado/reserva-natural-el-danubio-94</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>CAQUETA</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hotel Bacata Real</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Calle16 No. 12 – 49 Centro de Florencia
+Persona de contacto: Acenedt Zambrano Saldaña
+Teléfonos: (098) /4356889
+Celular: (57) 3125055843
+Correo electrónico: hotelroyalplazaflorencia@hotmail.com
+El Hotel está ubicado en pleno centro de la ciudad de Florencia, por donde se ubica la zona bancaria y comercial, sitio estratégico para el turismo y las actividades comerciales. Dispone de amplias y confortables habitaciones, dotadas de cama doble, closet, baño privado, aire acondicionado. y restaurante, entre otros.
+CÓMO LLEGAR:
+  Se toma la ruta 40 y 45 desde Bogotá hasta Neiva (319 km - 5 Horas 45 m). Se continúa por la ruta 45 desde Neiva hasta llegar a Altamira para continuar por la ruta 20 hasta Florencia (245 Kms - 4 Horas).
+VÍA TERRESTRE
+Distancia terrestre con relación a la capital del país: 595 Kl Tiempo estimado 10 Horas
+RUTA AÉREA:
+Se puede llegar al sitio por vía área tomando la ruta Bogotá – Florencia (Tiempo aproximado 1 hora). Luego se continúa desde el Aeropuerto Nacional Gustavo Artunduaga Paredes hasta ingresar al centro de la ciudad de Florencia, en la Calle16 No. 12 – 49 Centro de Florencia (3 Kms - 5 minutos).</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Agencias, Hoteles, Hoteles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>hotelroyalplazaflorencia@hotmail.com</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/hotel-bacata-real/</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>HOTEL BACATA REAL</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Calle16 No. 12 – 49 Centro de Florencia</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>(098) /4356889 | (57) 3125055843 | Teléfonos: (098) /4356889</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/dsc03571-1024x768.jpg | https://caqueta.travel/wp-content/uploads/2024/05/hotel_bacata_real_3_1-1024x333.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc03566-1024x768.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc03570-768x1024.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc03571-1024x768.jpg | https://caqueta.travel/wp-content/uploads/2024/05/hotel_bacata_real_3_1-1024x333.jpg | https://caqueta.travel/wp-content/uploads/2024/05/hotel_royal-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>La Calera Amazónica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Kilómetro 4 Vía Sebastopol – Antigua Vía Florencia -Neiva
+Persona de contacto: Rafael Duran Macias
+Teléfonos: (8) 4370924
+Celular: 3132051224 - 3102889948
+Facebook: https://www.facebook.com/estadero.lacalera
+Correo electrónico: lacaleraamazonica@hotmail.com
+Página Web: www.lacaleraamazonica.amawebs.com
+El sitio se trata de una construcción campestre, ubicada bajo un bello panorama natural frente al rio Hacha, con un espectacular mirador rodeado de aire puro. Con una oferta gastronómica con comida típica de la región, bebidas nacionales y extranjeras, heladería y muchos atractivos más. Ofrece al turista la práctica de numerosas actividades, entre ellas senderismo y baño por las cristalinas aguas y disfrute de playa del río Hacha. Se cuenta con balcones para avistamiento de fauna y flora silvestre. El turista puede hacer contacto directo en su hábitat con micos, guacamayas, loros, garzas, pirarocus, y demás especies; Se cuenta con lagos para la práctica de pesca deportiva; en el área se puede practicar ciclo montañismo o ciclo turismo por la ruta de la quebrada la perdiz, caminata hasta las pailas de aguas negras. Se puede practicar actividad de Canopy. Se cuenta con guías entrenados y se ofreces recreación dirigida.
+CÓMO LLEGAR:
+Se toma la ruta 40 y 45 desde Bogotá hasta Neiva (319 km - 5 Horas 45 m). Se continúa por la ruta 45 desde Neiva hasta llegar a Altamira para continuar por la ruta 20 hasta el kilómetro 2 antes de ingresar a la ciudad de Florencia (243 Kms - 4 Horas). El sitio se ubica a mano izquierda de la ruta 65.
+VÍA TERRESTRE
+Distancia terrestre con relación a la capital del país: 595 Kl Tiempo estimado 10 Horas
+Distancia terrestre con relación a la capital del departamento: 4 Kl Tiempo estimado 5 Minutos
+Distancia terrestre con relación al casco urbano más cercano: 4 Kl Tiempo estimado 5 Minutos
+RUTA AÉREA:
+Se puede llegar al sitio por vía área tomando la ruta Bogotá – Florencia (Tiempo aproximado 1 hora) y se continua por la vía terrestre 65 Florencia – Neiva kilómetro 4 Nueva Jerusalén (5 Minutos), Vía Sebastopol – Antigua Vía Florencia -Neiva.
+"FOTOGRAFÍAS: MCARVAJAL / FOTUR"</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Actractivos Turisticos, Bar, Actractivos Turisticos, Finca, Finca, Actractivos Turisticos</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>lacaleraamazonica@hotmail.com</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/la-calera-amazonica/</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>LA CALERA AMAZÓNICA</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Kilómetro 4 Vía Sebastopol – Antigua Vía Florencia -Neiva</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>(8) 4370924 | 3132051224 - 3102889948 | Teléfonos: (8) 4370924</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/la-calera-3-1024x683.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-6-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-1-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9537-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9809-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/untitled-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/untitled-640x360.png | https://caqueta.travel/wp-content/uploads/2024/05/untitled1.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9537-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9809-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-6-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-1-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9537-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9809-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/untitled-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/untitled-640x360.png | https://caqueta.travel/wp-content/uploads/2024/05/untitled1.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9537-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9809-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-6-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-1-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9537-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9809-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/untitled-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/untitled-640x360.png | https://caqueta.travel/wp-content/uploads/2024/05/untitled1.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9537-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9809-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ferry MarcoPolo Crucero Fluvial Ecológico</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Vda Puerto Arango, Corregimiento Venecia, Florencia
+Persona de contacto: Ruben Dario Polo Sierra
+Celular: 3157821419 - 3164110752
+Correo electrónico: ferrymarcopolo27@gmail.com
+Página Web: www.ferrymarcopolo.com
+Ferry Marcopolo es una experiencia de naturaleza única inolvidable en la que se realiza senderismo fluvial interpretativo, donde los visitantes viven la emoción fascinante de navegar las aguas del rio Orteguaza a bordo del Ferry Marcopolo, acompañados por un guión con un alto contenido de sensibilidad ambiental e histórico en la voz armoniosa del capitán Marcopolo.
+Mientras la embarcación avanza apaciblemente se van abriendo a los ojos del visitante verdes y hermosos paisajes ribereños, en los que se realiza avistamiento de aves del ecosistema fluvial.
+Pasado el mediodía la embarcación atraca en la isla del amor, donde bajo la sombra de frondosos carbones y bilibiles los paseantes hacen deleite de la gastronomía a bordo, experimentando perdurables sensaciones de satisfacción.
+Finalmente de la isla del amor se navega a playa Primavera, un regadal del rio al lado de una enorme playa de finas arenas, donde se disfruta el voleibol, futbol playa y un refrescante baño en las cálidas aguas del rio.
+Capacidad total de personas instaladas: 60 personas para transportar
+Hora de zarpe: 10 am
+Hora de regreso a puerto: 5 pm
+CÓMO LLEGAR:
+Se toma la ruta 40 y 45 desde Bogotá hasta Neiva (319 km - 5 Horas 45 m). Se continúa por la ruta 45 desde Neiva hasta llegar a Altamira para continuar por la ruta 20 hasta la ciudad de Florencia (245 Kms - 4 Horas). De Florencia se toma la ruta 65 hasta el Muelle Fluvial Puerto Arango, ubicado a orillas del Río Orteguaza, con una distancia de recorrido de 12 kilómetros que se realizan en 20 minutos.
+VÍA TERRESTRE
+Distancia terrestre con relación a la capital del país: 595 Kl Tiempo estimado 10 Horas
+Distancia terrestre con relación a la capital del departamento: 12 Kl vía la Montañita, Tiempo estimado 20 Minutos
+Distancia terrestre con relación al casco urbano más cercano: 12 Kl vía la Montañita, Tiempo estimado 20 Minutos
+RUTA AÉREA:
+Se puede llegar al sitio por vía área tomando la ruta Bogotá – Florencia (Tiempo aproximado 1 hora) y se continua por la vía terrestre 45 Neiva – Florencia. Para continuar de Florencia por la ruta 65 hasta el Muelle Fluvial Puerto Arango, ubicado a orillas del Río Orteguaza.
+"FOTOGRAFÍAS: MCARVAJAL / FOTUR"</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Actractivos Turisticos, Actractivos Turisticos, Finca, Finca, Actractivos Turisticos</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ferrymarcopolo27@gmail.com</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/ferry-marcopolo-crucero-fluvial-ecologico/</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>FERRY MARCOPOLO CRUCERO FLUVIAL ECOLÓGICO</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Vda Puerto Arango, Corregimiento Venecia, Florencia</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>3157821419 | 3164110752</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-1024x683.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-1024x683.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-6-1024x683.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-2-1024x683.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-3-1024x683.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-4-1024x683.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-1024x683.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-1024x683.jpg | https://caqueta.travel/wp-content/uploads/2024/05/la-calera-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-1-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9537-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9809-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/untitled-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/untitled-640x360.png | https://caqueta.travel/wp-content/uploads/2024/05/untitled1.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9537-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9809-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/la-calera-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-1-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9537-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9809-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/untitled-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/untitled-640x360.png | https://caqueta.travel/wp-content/uploads/2024/05/untitled1.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9537-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9809-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/la-calera-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-1-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9537-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9809-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/untitled-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/untitled-640x360.png | https://caqueta.travel/wp-content/uploads/2024/05/untitled1.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9537-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9809-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Parque Ecológico El Paraíso de Pedro</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Vereda El Limón
+Persona de contacto: Pedro Alfonso Perico Gomez
+Celular: 3203000436
+Correo electrónico: paraisodepedro@hotmail.com
+Se trata de una reserva natural ubicada en las estribaciones de la cordillera oriental, a tan solo 30 minutos del casco urbano de la ciudad de Florencia, por la antigua vía al departamento del Huila. Recorrido que inicia desde la vereda Sebastopol a través de caminata ecológica hasta el sitio denominado “Paraíso de Pedro”. Los turistas encontrarán por esta ruta el sitio ideal para practicar el turismo de naturaleza y de aventura en la quebrada La Morrocoya. La aventura inicia con un recorrido por el sendero de Los Lacres y cruzar el Bosque de las Termitas, hasta llegar al cañón de la quebrada la Morrocoya donde se encuentra la cascada La Tigra y La Morrocoya, pocetas, pocetones, estrechos, moyas, que permiten la práctica del cayoning y el torrentismo. Además se combina caminatas, con técnicas de escalada y natación para navegar por piletones, cañadones y rápidos tan solo con el cuerpo y la ayuda de equipos certificados apropiados para este tipo de aventuras. Al terminar el recorrido, los turistas disfrutan de un agradable baño en un pocotón formado en las aguas de la quebrada La Morrocoya, conocido como “El Charco de Perico” donde se puede practicar el barranquismo. En el área también se puede practicar campin, senderismo interpretativo, el avistamiento de aves, mamíferos, mariposas y flores silvestres, adelantar actividades de investigación, entre otros.
+Capacidad total de personas instaladas 10 personas instaladas en vivienda campestre
+CÓMO LLEGAR:
+Se toma la ruta 40 y 45 desde Bogotá hasta Neiva (319 km - 5 Horas 45 m). Se continúa por la ruta 45 desde Neiva hasta llegar a Altamira para continuar por la ruta 20 hasta el kilómetro 2 antes de ingresar a la ciudad de Florencia (245 Kms - 4 Horas). Del centro de Florencia se ubica a 10 kilómetros por la antigua vía Florencia – Neiva, a 20 minutos.
+VÍA TERRESTRE
+Distancia terrestre con relación a la capital del país: 595 Kl Tiempo estimado 10 Horas
+Distancia terrestre con relación a la capital del departamento: 42 Kl Tiempo estimado 1 Hora
+Distancia terrestre con relación al casco urbano más cercano: 7,5 Kl Tiempo estimado 50 Minutos
+RUTA AÉREA:
+Se puede llegar al sitio por vía área tomando la ruta Bogotá – Florencia (Tiempo aproximado 1 hora) y se continua por la vía terrestre 65 Neiva – Florencia. Del centro de Florencia se ubica a 10 kilómetros por la antigua vía Florencia – Neiva, a 20 minutos.
+"FOTOGRAFÍAS: MCARVAJAL / FOTUR"</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Finca, Actractivos Turisticos, Actractivos Turisticos, Finca</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>paraisodepedro@hotmail.com</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/parque-ecologico-el-paraiso-de-pedro/</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>PARQUE ECOLÓGICO EL PARAÍSO DE PEDRO</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Vereda El Limón</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>3203000436</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-1024x683.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-1024x683.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-1-1024x683.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-2-1024x683.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-5-683x1024.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-1024x683.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-1024x683.jpg | https://caqueta.travel/wp-content/uploads/2024/05/la-calera-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-6-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9537-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9809-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/untitled-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/untitled-640x360.png | https://caqueta.travel/wp-content/uploads/2024/05/untitled1.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9537-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9809-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/la-calera-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-6-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9537-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9809-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/untitled-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/untitled-640x360.png | https://caqueta.travel/wp-content/uploads/2024/05/untitled1.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9537-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9809-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/la-calera-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-6-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9537-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9809-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/untitled-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/untitled-640x360.png | https://caqueta.travel/wp-content/uploads/2024/05/untitled1.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9537-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9809-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Reserva Natural Dos Quebradas</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Finca Dos Quebradas – Vereda Alto San Cristóbal
+Persona de contacto: Leonte Correo Orozco
+Celular: 3147420111
+CÓMO LLEGAR:
+Se toma la ruta 40 y 45 desde Bogotá hasta Neiva (319 km - 5 Horas 45 m). Se continúa por la ruta 45 desde Neiva hasta llegar a Altamira para continuar por la ruta 20 hasta Florencia (245 Kms - 4 Horas). Se continúa por la vía que de Florencia conduce a la Vereda San Antonio de Atenas hasta llegar al Vereda Alto San Cristóbal (16 Kms - 40 minutos).
+VÍA TERRESTRE
+Distancia terrestre con relación a la capital del país: 595 Kl Tiempo estimado 10 Horas
+Distancia terrestre con relación a la capital del departamento: 16 Kl Tiempo estimado 40 Minutos
+RUTA AÉREA:
+Se puede llegar al sitio por vía área tomando la ruta Bogotá – Florencia (Tiempo aproximado 1 hora) y se continua por la vía terrestre 65 Neiva – Florencia. Se continúa por la vía que de Florencia conduce a la Vereda San Antonio de Atenas hasta llegar al Vereda Alto San Cristóbal (16 Kms - 40 minutos).</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Finca, Actractivos Turisticos, Actractivos Turisticos, Finca, Actractivos Turisticos</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/reserva-natural-dos-quebradas/</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>RESERVA NATURAL DOS QUEBRADAS</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Finca Dos Quebradas – Vereda Alto San Cristóbal</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>3147420111</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/dsc_9537-1024x680.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9809-1024x680.jpg | https://caqueta.travel/wp-content/uploads/2024/05/untitled.jpg | https://caqueta.travel/wp-content/uploads/2024/05/untitled.png | https://caqueta.travel/wp-content/uploads/2024/05/untitled1.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9537-1024x680.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9809-1024x680.jpg | https://caqueta.travel/wp-content/uploads/2024/05/la-calera-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-6-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-1-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/la-calera-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-6-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-1-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/la-calera-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-6-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-1-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>La Calera Amazónica – Morelia Caquetá</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Kilómetro 22
+Persona de contacto: Jorge William Barahona García
+Celular: 3108768495 - 3134416609
+Facebook: https://www.facebook.com/CASASANTANA
+Correo electrónico: Casasantana_morelia@hotmail.com
+Ubicado en el Municipio de Morelia, a 20 minutos de la Capital del Departamento del Caquetá. Se trata de un centro vacacional con excelentes comodidades en medio de la belleza natural de la Amazonia. Cuanta con infraestructura hotelera moderna, especial para disfrutar de una confortable estadía, ya sea de vacaciones o por motivos empresariales. Podrá encontrar habilitaciones dotadas con aire acondicionado y baño privado, así como piscinas para niños y adultos, un amplio parqueadero, y lo más importante un magnifico restaurante donde podrá disfrutar de platos a la Carta con menú diferente todos los días y en especial platos gastronómicos tradicionales de la región. Se cuenta con diferentes planes, que van desde la atención de eventos sociales, reuniones empresariales y familiares, exótico paseo en balsa por el cauce del río Bodoquero, caminatas atravesando hermosos senderos eco turísticos, con el acompañamiento de personal especializado y profundo conocedor de la región. Se ofrece recorridos en Land Rover por los más inhóspitos lugares de la Amazonia Colombiana y su puerta de oro.
+CÓMO LLEGAR:
+  Se toma la ruta 40 y 45 desde Bogotá hasta Neiva (319 km - 5 Horas 45 m). Se continúa por la ruta 45 desde Neiva hasta llegar a Altamira para continuar por la ruta 20 hasta el kilómetro 1 antes de ingresar a la ciudad de Florencia (243 Kms - 4 Horas). De Florencia se toma la ruta 65 hasta el Municipio de Morelia, con una distancia de recorrido de 22 kilómetros que se realizan en 25 minutos.
+VÍA TERRESTRE
+Distancia terrestre con relación a la capital del país: 595 Kl Tiempo estimado 10 Horas
+Distancia terrestre con relación a la capital del departamento: 22 Kl Tiempo estimado 25 Minutos
+RUTA AÉREA:
+  Se puede llegar al sitio por vía área tomando la ruta Bogotá – Florencia (Tiempo aproximado 1 hora) y se continua por la vía terrestre Ruta 65 Florencia – Morelia a 22 kilómetros (25 Minutos).</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Actractivos Turisticos, Centro Recreacional, Restaurante, Salon de Eventos, Actractivos Turisticos, Finca, Actractivos Turisticos</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Casasantana_morelia@hotmail.com</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/la-calera-amazonica-morelia-caqueta/</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Morelia</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>LA CALERA AMAZÓNICA – MORELIA CAQUETÁ</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Kilómetro 22</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>3108768495 | 3134416609</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/san_morelia.jpg | https://caqueta.travel/wp-content/uploads/2024/05/la-calera-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-6-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-1-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/la-calera-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-6-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-1-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/la-calera-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-6-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-1-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hotel Royal Plaza</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Carrera 11 No. 14 – 64 Frente a la Plaza Pizarro - Centro de Florencia
+Teléfonos: (098) 435 5848 - 435 7504
+Celular: (57)3174418114 - 3174419131
+Facebook: https://www.facebook.com/pages/Hotel-Royal-Plaza/190440701001516?fref=ts
+Correo electrónico: hotelroyalplazaflorencia@hotmail.com
+Página Web: www.hotelroyalplazaflorencia.com
+El Hotel Royal Plaza está ubicado en la carrera 11 frente a la Plaza Pizarro en pleno centro de la ciudad de Florencia, fue fundado en el año de 1946, por el señor Leónidas Lara e Hijas LTDA prestando el servicio de hospedaje durante 36 años; luego pasa a manos del señor Luis Hernando Matiz Bernal continuando con su propósito de seguir mejorando el servicio prestado a la comunidad. Tiene una capacidad instalada para 70 personas con servicios de restaurante, bar, salón de eventos entre otros.
+CÓMO LLEGAR:
+Se toma la ruta 40 y 45 desde Bogotá hasta Neiva (319 km - 5 Horas 45 m). Se continúa por la ruta 45 desde Neiva hasta llegar a Altamira para continuar por la ruta 20 hasta Florencia (245 Kms - 4 Horas).
+VÍA TERRESTRE
+Distancia terrestre con relación a la capital del país: 595 Kl Tiempo estimado 10 Horas.
+RUTA AÉREA:
+Se puede llegar al sitio por vía área tomando la ruta Bogotá – Florencia (Tiempo aproximado 1 hora). Luego se continúa desde el Aeropuerto Nacional Gustavo Artunduaga Paredes hasta ingresar al centro de la ciudad de Florencia, en la Carrera 11 No. 14 – 64 frente a la Plaza Pizarro - (3 Kms - 5 minutos).
+"FUENTE: CDTCAQUETA.GOV.CO"
+"FOTOGRAFÍAS: MCARVAJAL / FOTUR"</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Hoteles, Agencias, Actractivos Turisticos, Actractivos Turisticos, Agencias</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>hotelroyalplazaflorencia@hotmail.com</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/hotel-royal-plaza/</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>HOTEL ROYAL PLAZA</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Carrera 11 No. 14 – 64 Frente a la Plaza Pizarro - Centro de Florencia</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>(098) 435 5848 - 435 7504 | (57)3174418114 - 3174419131 | Teléfonos: (098) 435 5848 - 435 7504</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/hotel_royal-1024x333.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc03571-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/hotel_bacata_real_3_1-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc03566-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc03570-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc03571-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/hotel_bacata_real_3_1-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/la-calera-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-6-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc03571-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/hotel_bacata_real_3_1-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc03566-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc03570-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc03571-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/hotel_bacata_real_3_1-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/la-calera-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-6-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc03571-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/hotel_bacata_real_3_1-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc03566-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc03570-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc03571-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/hotel_bacata_real_3_1-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/la-calera-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-6-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Parroquia Nuestra Señora de la Consolata</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Calle 5 cra. 4 esquina Albania
+Teléfonos: 4303101
+DIÓCESIS DE FLORENCIA
+  Fundada en 1959 por el Padre José Fusaroli sacerdote Italiano de la orden de la Consolata quien la bautizo con el nombre de Nuestra Señora de la Consolata. El templo estuvo un tiempo abandonado y era utilizado como bodega años más tarde fue adecuado y  en el año de 1978 la comunidad le pidió al obispo monseñor Ángel Curiberti que les declara como patrona de la parroquia a la Virgen del Carmen celebrándose así cada año la fiesta el día 16 de julio en contraste con el nombre de la parroquia. Es un templo de arquitectura muy sencilla de unas sola nave con una capacidad para 80 personas, en su interior encontramos la imagen a la Virgen del Carmen y algunos vitrales que representan la última cena.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/parroquia-nuestra-senora-de-la-consolata/</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>PARROQUIA NUESTRA SEÑORA DE LA CONSOLATA</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Calle 5 cra. 4 esquina Albania</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>4303101 | Teléfonos: 4303101</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/sagrado_corazon_0-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/sagrado_corazon_0-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/sagrado_corazon_0-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Santuario Virgen de las Mercedes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Vereda las Mercedes, 6km del casco urbano
+Cada año en el mes de septiembre para celebrar la fiesta de la Virgen de las Mercedes los habitantes del municipio de Albania, realizan una procesión hasta el Santuario de la Virgen, los feligreses acostumbran a llevar el almuerzo, realizan la santa misa y luego se bañan en el Rio Fragua Chorroso que pasa muy cerca al santuario. En este sitio encontramos una pequeña capilla de 6m x 10m de fondo y  la imagen de la Virgen de las Mercedes de unos 80 centímetros de altura,  empotrada en la pared y cubierta por un vidrio la cual fue donada por uno de los colonos del municipio en agradecimiento por un favor recibido.
+INDICACIONES PARA EL ACCESO
+  Se Llega por la vía que conduce al municipio de Albania,  sobre la margen derecha del rio Fragua Chorroso.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/santuario-virgen-de-las-mercedes/</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>SANTUARIO VIRGEN DE LAS MERCEDES</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Vereda las Mercedes, 6km del casco urbano</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-1024x768.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-1024x768.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/sagrado_corazon_0-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/sagrado_corazon_0-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/sagrado_corazon_0-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Palacio Municipal</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Cll. 6 No. 6-05
+Teléfonos: 430 3089
+Edificio construido de dos plantas en el año de 1999 donde funcionan las oficinas de la administración municipal, se encuentra ubicado diagonal al parque principal.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Entes de Gobierno, Entes de Gobierno, Centro Cultural, Bibliotecas, Entes de Gobierno</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/palacio-municipal/</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>PALACIO MUNICIPAL</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Cll. 6 No. 6-05</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>430 3089 | Teléfonos: 430 3089</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/biblioteca_ppsblica_municipal_de_curillo-512x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/biblioteca_ppsblica_municipal_de_curillo-512x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/biblioteca_ppsblica_municipal_de_curillo-512x360.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Centro Regional de Educación Superior de Albania (Ceres)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Cll. 5 No. 2ª vía a las Mercedes
+Este importante centro de educación superior funciona desde el año 2005 y agrupa los servicios de tres Universidades como la Universidad de la Amazonia, La CUN, y la UNAD con programas semipresenciales y a distancia. Este establecimiento cuenta con una excelente infraestructura física que agrupa salones de clase, oficinas, cafetería, baños y un polideportivo.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Centros Educativos, Centros Educativos, Centros Educativos, Centros Educativos</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/centro-regional-de-educacion-superior-de-albania-ceres/</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>CENTRO REGIONAL DE EDUCACIÓN SUPERIOR DE ALBANIA (CERES)</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Cll. 5 No. 2ª vía a las Mercedes</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/ceres_albania.png | https://caqueta.travel/wp-content/uploads/2024/05/escuela_audiovisual.png | https://caqueta.travel/wp-content/uploads/2024/05/institucion_educativa_cervantes_-_morelia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/escuela_audiovisual.png | https://caqueta.travel/wp-content/uploads/2024/05/institucion_educativa_cervantes_-_morelia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/escuela_audiovisual.png | https://caqueta.travel/wp-content/uploads/2024/05/institucion_educativa_cervantes_-_morelia-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Biblioteca Pública Municipal</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Calle 6 Frente al Parque
+Ofrece servicio de sala de lectura, no cuenta con servicio de internet, tiene televisor y vhs donde presentan diferentes videos educativos. Cuenta con un inventario de aproximadamente 2.000 libros. Sus instalaciones se encuentra en buen estado cuenta con un salón para eventos de 4m y 8 m este espacio es utilizado para realizar diferentes actividades pedagógicas. Horario de atención de lunes a viernes de 8 Am a 12.m y de 2:00 a 6:00 p.m.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Bibliotecas, Bibliotecas</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/biblioteca-publica-municipal/</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>BIBLIOTECA PÚBLICA MUNICIPAL</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Calle 6 Frente al Parque</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/biblioteca_0.jpg | https://caqueta.travel/wp-content/uploads/2024/05/biblioteca_ppsblica_municipal_de_curillo-512x360.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Centro de Salud</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Cll. 4 Cra. 5 esquina
+Teléfonos: 430 5029
+El centro de Salud de nivel I, ofrece los servicios de Consulta médica general, urgencias las 24 horas, odontología, sala de partos, sala de observación, laboratorio clínico, vacunación, toma de citologías, planificación familiar, control de crecimiento y desarrollo y farmacia para los desplazados. Funciona con una planta de 17 funcionarios entre médicos, enfermeras, administrativos. Depende del Hospital San Roque del municipio de Belén de los Andaquies.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Entidades de Salud, Entidades de Salud, Entidades de Salud, Entidades de Salud</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/centro-de-salud-2/</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>CENTRO DE SALUD</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Cll. 4 Cra. 5 esquina</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>430 5029 | Teléfonos: 430 5029</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/centro_de_salud_albania.png | https://caqueta.travel/wp-content/uploads/2024/05/hospital_local-604x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/salud-montana-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/centro_de_salud_-_morelia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/hospital_local-604x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/salud-montana-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/centro_de_salud_-_morelia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/hospital_local-604x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/salud-montana-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/centro_de_salud_-_morelia-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Parroquia Nuestra Señora Del Carmen</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Centro Urbano Calle 2 Frente Al Parque Principal
+Teléfonos: (8) 430 2124
+La parroquia de Nuestra Señora del Carmen erigida en la plaza principal es el recinto de devotos y visitantes que la visitan con ocasión especial de la fiesta de Nuestra Señora del Carmen que anualmente se celebran en el mes de julio. El primer templo del pueblo fue construido en la misma época de su fundación en 1965 luego en 1980 se construye frente al parque donde yace actualmente.
+INDICACIONES PARA EL ACCESO
+  Se puede llegar a este bello municipio por vía terrestre desde Florencia, pasando por Morelia, Belén de Los Andaquíes, San José del Fragua y Albania.  También se puede acceder al municipio por vía fluvial a través del río Caquetá desde los municipios de Solita y Solano.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/parroquia-nuestra-senora-del-carmen/</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Curillo</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>PARROQUIA NUESTRA SEÑORA DEL CARMEN</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Centro Urbano Calle 2 Frente Al Parque Principal</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>(8) 430 2124 | Teléfonos: (8) 430 2124</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-1024x683.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-1024x683.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-1024x683.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-1024x683.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/sagrado_corazon_0-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/sagrado_corazon_0-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/sagrado_corazon_0-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Edificio Alcaldía Municipal De Curillo</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Cra 2 Calle 11
+Teléfonos: 4302100
+Edificio de arquitectura moderna, construido durante el periodo de gobierno 2004-2007.  Consta de dos plantas donde funciona la alcaldía del municipio con todas sus dependencias.
+INDICACIONES PARA EL ACCESO
+  Se puede llegar a este bello municipio por vía terrestre desde Florencia, pasando por Morelia, Belén de Los Andaquíes, San José del Fragua y Albania.  También se puede acceder al municipio por vía fluvial a través del río Caquetá desde los municipios de Solita y Solano.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Entes de Gobierno, Entes de Gobierno, Centro Cultural, Bibliotecas, Entes de Gobierno</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/edificio-alcaldia-municipal-de-curillo/</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Curillo</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>EDIFICIO ALCALDÍA MUNICIPAL DE CURILLO</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Cra 2 Calle 11</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>4302100 | Teléfonos: 4302100</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--1024x782.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-1024x683.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--1024x782.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/biblioteca_ppsblica_municipal_de_curillo-512x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/biblioteca_ppsblica_municipal_de_curillo-512x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/biblioteca_ppsblica_municipal_de_curillo-512x360.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Casa de la cultura “Arte Paz Y Vida”</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Cra 6 Esquina Frente A La Escuela
+Teléfonos: 4302369
+Edificación construida en diciembre del año 2000, cuenta con 1 salón de danzas, 1 salón de música, 1 salón de trajes y la oficina principal. Desde este recinto se preparan las coreografías y en las tardes se realizan los ensayos del grupo de danzas que ha representado el municipio en diferentes certámenes del orden departamental.
+INDICACIONES PARA EL ACCESO
+  Se puede llegar a este bello municipio por vía terrestre desde Florencia, pasando por Morelia, Belén de Los Andaquíes, San José del Fragua y Albania.  También se puede acceder al municipio por vía fluvial a través del río Caquetá desde los municipios de Solita y Solano.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Centro Cultural, Entes de Gobierno, Entes de Gobierno, Entes de Gobierno, Bibliotecas</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/casa-de-la-cultura-arte-paz-y-vida/</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Curillo</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>CASA DE LA CULTURA “ARTE PAZ Y VIDA”</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Cra 6 Esquina Frente A La Escuela</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Teléfonos: 4302369</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/biblioteca_ppsblica_municipal_de_curillo-512x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/biblioteca_ppsblica_municipal_de_curillo-512x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/biblioteca_ppsblica_municipal_de_curillo-512x360.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Biblioteca Municipal</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Esquina Idema
+Este edificio fue construido en el 2007 como primera Biblioteca Pública Municipal, por la administración de la Alcaldesa María Edith Rivera Bermeo. En esta moderna estructura se prestan los servicios de consulta de textos, libros, sala de lectura, video. Cuenta con un salón de lectura y dos salones de informática.
+INDICACIONES PARA EL ACCESO
+  Se puede llegar a este bello municipio por vía terrestre desde Florencia, pasando por Morelia, Belén de Los Andaquíes, San José del Fragua y Albania.  También se puede acceder al municipio por vía fluvial a través del río Caquetá desde los municipios de Solita y Solano.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Bibliotecas, Entes de Gobierno, Entes de Gobierno, Bibliotecas, Entes de Gobierno, Entes de Gobierno</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/biblioteca-municipal/</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Curillo</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>BIBLIOTECA MUNICIPAL</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Esquina Idema</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/biblioteca_ppsblica_municipal_de_curillo.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/biblioteca_0-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/biblioteca_0-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/biblioteca_0-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Auditorio Municipal</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Esquina Idema
+Al igual que la Biblioteca el Auditorio Municipal es construido en el 2007 en terrenos del antiguo IDEMA. Cuenta con un área de 450m2 y una capacidad para 144 asistentes. Lo complementan un salón de sonido y una cocina. Este recinto es utilizado para eventos especiales de tipo cultural, académico, social y político.
+INDICACIONES PARA EL ACCESO
+  Se puede llegar a este bello municipio por vía terrestre desde Florencia, pasando por Morelia, Belén de Los Andaquíes, San José del Fragua y Albania.  También se puede acceder al municipio por vía fluvial a través del río Caquetá desde los municipios de Solita y Solano.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Entes de Gobierno, Salon de Eventos, Actractivos Turisticos, Entes de Gobierno, Entes de Gobierno, Actractivos Turisticos</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/auditorio-municipal/</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Curillo</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>AUDITORIO MUNICIPAL</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Esquina Idema</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/auditorio_alcaldia-1024x683.jpg | https://caqueta.travel/wp-content/uploads/2024/05/auditorio_alcaldia.png | https://caqueta.travel/wp-content/uploads/2024/05/auditorio_alcaldia-1024x683.jpg | https://caqueta.travel/wp-content/uploads/2024/05/auditorio_alcaldia.png | https://caqueta.travel/wp-content/uploads/2024/05/san_morelia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/san_morelia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/san_morelia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Coliseo Cubierto</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Contiguo A La Cancha De Futbol
+Coliseo cubierto construido en 2007 con capacidad para 3000 personas, cuenta con tarima y cuatro graderías, baños, camerinos, iluminación. En este lugar se realiza el encuentro departamental de danzas al igual que eventos deportivos que convoca a todos los habitantes del municipio. Se requiere adecuación  mínima como unos pasamanos en el área de graderías y cancha móvil de microfútbol y baloncesto.
+INDICACIONES PARA EL ACCESO
+  Se puede llegar a este bello municipio por vía terrestre desde Florencia, pasando por Morelia, Belén de Los Andaquíes, San José del Fragua y Albania.  También se puede acceder al municipio por vía fluvial a través del río Caquetá desde los municipios de Solita y Solano.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Centro Deportivo, Salon de Eventos, Actractivos Turisticos, Entes de Gobierno, Centro Deportivo, Actractivos Turisticos</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/coliseo-cubierto-2/</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Curillo</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>COLISEO CUBIERTO</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Contiguo A La Cancha De Futbol</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/coliseo_cubierto_curillo.png | https://caqueta.travel/wp-content/uploads/2024/05/san_morelia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/auditorio_alcaldia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/auditorio_alcaldia-515x360.png | https://caqueta.travel/wp-content/uploads/2024/05/auditorio_alcaldia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/auditorio_alcaldia-515x360.png | https://caqueta.travel/wp-content/uploads/2024/05/coliseo_cubierto_-_morelia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/san_morelia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/auditorio_alcaldia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/auditorio_alcaldia-515x360.png | https://caqueta.travel/wp-content/uploads/2024/05/auditorio_alcaldia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/auditorio_alcaldia-515x360.png | https://caqueta.travel/wp-content/uploads/2024/05/coliseo_cubierto_-_morelia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/san_morelia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/auditorio_alcaldia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/auditorio_alcaldia-515x360.png | https://caqueta.travel/wp-content/uploads/2024/05/auditorio_alcaldia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/auditorio_alcaldia-515x360.png | https://caqueta.travel/wp-content/uploads/2024/05/coliseo_cubierto_-_morelia-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Edificio Idema Asprocur</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Correo electrónico: No aplica
+Edificio del antiguo IDEMA,  consta de una bodega cerrada de aluminio de 60 mts de largo x 20 metros de ancho, entregada en comodato a ASPROCUR (Asociación de Productores de Curillo) para el procesamiento de plátano y yuca .Actualmente se encuentra en total estado de abandono por parte de la asociación y la maquinaria perteneciente a la planta ha sido saqueada y desvalijada.
+INDICACIONES PARA EL ACCESO
+  Se puede llegar a este bello municipio por vía terrestre desde Florencia, pasando por Morelia, Belén de Los Andaquíes, San José del Fragua y Albania.  También se puede acceder al municipio por vía fluvial a través del río Caquetá desde los municipios de Solita y Solano.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Entes de Gobierno, Entes de Gobierno, Entes de Gobierno, Centro Cultural</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/edificio-idema-asprocur/</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Curillo</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>EDIFICIO IDEMA ASPROCUR</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/asprosur_curillo.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Muelle De Pasajeros</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Centro Curillo
+Muelle sobre el Rio Caquetá, Punto de embarque de pasajeros y carga que hacen travesía por el rio hacia otros municipios del Caquetá como Solita y Solano, así como a poblaciones del Putumayo y el Brasil.  Construido en hierro, desde aquí se pueden observar los espectaculares atardeceres sobre el río Caquetá que tanto caracterizan este bello municipio.
+INDICACIONES PARA EL ACCESO
+  Se puede llegar a este bello municipio por vía terrestre desde Florencia, pasando por Morelia, Belén de Los Andaquíes, San José del Fragua y Albania.  También se puede acceder al municipio por vía fluvial a través del río Caquetá desde los municipios de Solita y Solano.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Entes de Gobierno, Viajes y Transporte, Entes de Gobierno, Entes de Gobierno, Centro Cultural, Entes de Gobierno</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/muelle-de-pasajeros/</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Curillo</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>MUELLE DE PASAJEROS</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Centro Curillo</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/muelle_fluvial_1.jpg | https://caqueta.travel/wp-content/uploads/2024/05/muelle_fluvial-1024x683.jpg | https://caqueta.travel/wp-content/uploads/2024/05/muelle_fluvial_0.jpg | https://caqueta.travel/wp-content/uploads/2024/05/muelle_fluvial-1024x683.jpg | https://caqueta.travel/wp-content/uploads/2024/05/muelle_flotante_curillo.png | https://caqueta.travel/wp-content/uploads/2024/05/muelle_1.jpg | https://caqueta.travel/wp-content/uploads/2024/05/muelle_0-1024x683.jpg | https://caqueta.travel/wp-content/uploads/2024/05/muelle_fluvial_1.jpg | https://caqueta.travel/wp-content/uploads/2024/05/muelle_fluvial-1024x683.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Puerto De La Madera</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Quebrada Curillo Medio
+Zona de carga en la bocana de la quebrada la Curillo Medio, muy utilizado para el transporte de madera, material del rio (arena y gravilla) víveres, zona de cargue y descargue de camiones. Las embarcaciones atracan en la playa debido a la ausencia del muelle de carga. Se encuentra en estado de abandono y se evidencia deterioro ambiental ocasionado por la falta de planificación y control de las actividades del lugar.
+INDICACIONES PARA EL ACCESO
+  Se puede llegar a este bello municipio por vía terrestre desde Florencia, pasando por Morelia, Belén de Los Andaquíes, San José del Fragua y Albania.  También se puede acceder al municipio por vía fluvial a través del río Caquetá desde los municipios de Solita y Solano.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Entes de Gobierno, Viajes y Transporte, Entes de Gobierno, Entes de Gobierno, Centro Cultural, Entes de Gobierno</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/puerto-de-la-madera/</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Curillo</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>PUERTO DE LA MADERA</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Quebrada Curillo Medio</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/caqueta-logo_0.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Terminal De Transporte De Curillo</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Calle 5
+Celular: 311 8207475
+Esta edificación fue construida en 1998 y ha tenido un uso muy limitado debido al poco tráfico vehicular que llegó a tener el municipio por la falta de vías de acceso en buen estado. En enero del presente año se vuelve a poner en funcionamiento con una nueva administración delegada por parte de la alcaldía municipal. En el momento funcionan cuatro empresas de transporte de pasajeros como son Coomotor, Cootransflorencia, Cootranscaqueta y Cootransmayo que prestan rutas hacia Florencia, Bogotá, y Cali. De igual manera el terminal cuenta con sala de espera, cafetería, baños y la oficina de la administración. La infraestructura se encuentra deteriorada, falta de pintura y terminación de aceras, pisos y paredes.
+Indicaciones para el Acceso
+Se puede llegar a este bello municipio por vía terrestre desde Florencia, pasando por Morelia, Belén de Los Andaquíes, San José del Fragua y Albania.  También se puede acceder al municipio por vía fluvial a través del río Caquetá desde los municipios de Solita y Solano.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Entes de Gobierno, Viajes y Transporte, Entes de Gobierno, Entes de Gobierno, Centro Cultural, Entes de Gobierno</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/terminal-de-transporte-de-curillo/</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Curillo</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>TERMINAL DE TRANSPORTE DE CURILLO</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Calle 5</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>311 8207475</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/terminal_de_transporte_curillo.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Planta De Tratamiento Empresa De Servicios Públicos De Curillo</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Cra 5 n. 6 - 11
+Esta planta de tratamiento es construida en el año 2000, para potabilizar el agua del municipio, reemplazando los viejos tanques elevados que se utilizaban en antaño. Actualmente la planta y en general la empresa de servicios públicos ostentan el segundo puesto a nivel departamental con la mejor agua potable.
+INDICACIONES PARA EL ACCESO
+Se puede llegar a este bello municipio por vía terrestre desde Florencia, pasando por Morelia, Belén de Los Andaquíes, San José del Fragua y Albania.  También se puede acceder al municipio por vía fluvial a través del río Caquetá desde los municipios de Solita y Solano.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Servicios Publicos</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/planta-de-tratamiento-empresa-de-servicios-publicos-de-curillo/</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Curillo</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>PLANTA DE TRATAMIENTO EMPRESA DE SERVICIOS PÚBLICOS DE CURILLO</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Cra 5 n. 6 - 11</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/planta_de_tratamiento_de_agua_curillo.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Escuela Audiovisual Infantil</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Cl. 5 con Cra. 4 Belén de los Andaquies
+Sin historia no hay cámara", es una de las frases de la Escuela Audiovisual Infantil,  que hace parte del proyecto de comunicación Andaki que inicio en el año de 1996, la idea de la escuela  nació en el 2005 para dar una esperanza a los niños y adolecentes que viven en este municipio del sur del Caquetá. Iniciaron con 30 alumnos entre 6 y 15 años que escriben, hacen fotografías, dibujan y montan pequeñas historias a modo de foto película con equipamiento digital. Con este proyecto creado por Alirio González desde la Casa de la Cultura, se busca además fortalecer la identidad y autoconfianza de una niñez que pone de su parte todo el entusiasmo para aprender. Es así como los niños  han recibido reconocimiento y felicitaciones al trabajo realizado por ver desde una óptica diferente el futuro del municipio.
+Para viabilizar este proyecto han contado a lo largo de su historia con el apoyo de entidades como la ONG Tomando Conciencia, La Fundación Friedrich Ebert y el Centro de Competencia en Comunicación para América Latina.
+"FUENTE: LUZ ADRIANA PÉREZ RIVERA"</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Centros Educativos, Centros Educativos, Centros Educativos, Centros Educativos</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/escuela-audiovisual-infantil/</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Belen de los Andaquies</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>ESCUELA AUDIOVISUAL INFANTIL</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Cl. 5 con Cra. 4 Belén de los Andaquies</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/escuela_audiovisual.png | https://caqueta.travel/wp-content/uploads/2024/05/ceres_albania.png | https://caqueta.travel/wp-content/uploads/2024/05/institucion_educativa_cervantes_-_morelia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ceres_albania.png | https://caqueta.travel/wp-content/uploads/2024/05/institucion_educativa_cervantes_-_morelia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ceres_albania.png | https://caqueta.travel/wp-content/uploads/2024/05/institucion_educativa_cervantes_-_morelia-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>La Prafa</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Cra. 5 3-15 Barrio los Fundadores
+La PRAFA “EL TRIBUNO”  Es un proyecto Ambiental Familiar desarrollado por los docentes Flor Marina Calderón Álvarez, Eulises Santanilla Ramírez y sus hijos. La PRAFA surge en el año 2.002 como alternativa  a la problemática familiar y social que se vive en el país y su objetivo es Brindar estrategias  que contribuyan al fortalecimiento e integración familiar y destacar que la educación es base fundamental de superación personal en todas sus dimensiones, que permita a las personas actuar en forma comprometida y responsable. A través de este proyecto se han acondicionado diferentes espacios y facetas de lo cultural y social que trasciende lo local y lo actual.
+La PRAFA cuenta con los siguientes atractivos: Bustos de los Peripatéticos, un  Pozo de la vida, una Fuente del deseo. Entrada el Andaquí, Un Kiosco - espacio para compartir, Un Espacio de reflexión Rosita (Imagen del Divino niño), Un  Mini polideportivo, Un Horno y cocina de leña, Un  Observatorio - Albert Einstein, Un Auditorio- Padre Juan Salateo, Un Aula de Competencias laborales especificas,  Eras para el cultivo de hortalizas,  Eras para el cultivo de plantas    medicinales, Una Maloca moderna, La Fuente de la sostenibilidad, Un bar de reflexión familiar, Espacios para explorar la geometría constructiva, Dos Kioscos comunicados por un puente, Galería de arte Emiro Garzón, Una Sala de lectura Florencia Hoy, Una Fuente del amor y una escultura en homenaje a la vida del maestro Emiro Garzón.
+"FUENTE: LUZ ADRIANA PÉREZ RIVERA"</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Finca, Finca, Finca, Finca</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/la-prafa/</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Belen de los Andaquies</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>LA PRAFA</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Cra. 5 3-15 Barrio los Fundadores</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/la_prafa.png | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-1-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9537-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9809-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/untitled-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/untitled-640x360.png | https://caqueta.travel/wp-content/uploads/2024/05/untitled1.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9537-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9809-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-1-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9537-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9809-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/untitled-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/untitled-640x360.png | https://caqueta.travel/wp-content/uploads/2024/05/untitled1.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9537-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9809-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-1-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9537-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9809-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/untitled-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/untitled-640x360.png | https://caqueta.travel/wp-content/uploads/2024/05/untitled1.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9537-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/dsc_9809-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Parroquia del Sagrado Corazón de Jesús</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Cra. 5 4-10 Frente al Parque principal
+Persona de contacto: Vicaria del Sur
+Teléfonos: (8) 431 6176
+En el año de 1917 el Misionero Fray Jacinto María de Quito levanto el primer templo en madera con techo de paja; luego en 1926, según los libros parroquiales, figura como encargado de la parroquia el Padre Lorenzo de Pupíales, fraile capuchino. Sin embargo, no se conoce con precisión el año y la fecha en que fue eregida la parroquia del Sagrado Corazón de Jesús. Uno de los grandes fundadores de la parroquia fue el Padre Juan Salateo  quien fue el arquitecto y diseñador de la obra,  quien  trabajo intensamente  con varios colonos entre ellos el señor Neftalí Ciceri y Nabor Muñoz,  el eternit que se utilizo para la parroquia,  lo trajeron al hombro desde la vereda aguas caliente, las únicas reformas de la parroquia es que ya no funciona el coro y le han cambiado varias veces el color de la pintura.
+Su arquitectura es muy sencilla de una sola nave, su interior es adornado con  arcos de medio punto, en el atrio encontramos la imagen del Sagrado Corazón de Jesús y varios vitrales que llevan la secuencia de las estaciones del viacrucis de nuestro señor. Celebra su fiesta patronal al sagrado Corazón en el mes de junio. Dentro de la parroquia existen varios grupos asociativos entre ellos, grupo juvenil, la infancia misionera, grupo de ancianos, grupo de oración.
+"FUENTE: LUZ ADRIANA PÉREZ RIVERA"</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/parroquia-del-sagrado-corazon-de-jesus/</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Belen de los Andaquies</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>PARROQUIA DEL SAGRADO CORAZÓN DE JESÚS</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Cra. 5 4-10 Frente al Parque principal</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>(8) 431 6176 | Teléfonos: (8) 431 6176</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/sagrado_corazon_0-1024x768.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Gruta de Nuestra Señora de Guadalupe</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Km 21 vía Vereda Tokio
+Construida por la propietaria del terreno en honor  a los favores concedidos encontramos en la vereda los Cauchos la Gruta de Nuestra Señora de Guadalupe, la cual está ubicada en medio de un área de cavernas poco exploradas hasta la fecha, en las cuales podemos encontrar la fauna típica de este hábitat, además de los minerales como cuarzo.  Actualmente no existe infraestructura para turismo en la zona pero por su belleza se cataloga como un recurso natural con mucho potencial turístico, tanto para la realización de investigaciones científicas, espeleología, y turismo religioso.
+INDICACIONES PARA EL ACCESO
+Partiendo desde el puerto principal se cruza el río Caguán hasta llegar al puerto La Hacienda. A partir de allí, se llega por vía terrestre hacia la vereda Tokio en un recorrido de aproximadamente 30 minutos (en época de verano) por carretera sin pavimentar. El recorrido terrestre se hace en vehículo automotor.
+"FUENTE:  IDCTC – JENNY ANDREA LÓPEZ"</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Actractivos Turisticos, Centros Espirituales, Actractivos Turisticos, Actractivos Turisticos, Actractivos Turisticos, Actractivos Turisticos</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/gruta-de-nuestra-senora-de-guadalupe/</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Cartagena del Chaira</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>GRUTA DE NUESTRA SEÑORA DE GUADALUPE</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Km 21 vía Vereda Tokio</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/gruta.jpg | https://caqueta.travel/wp-content/uploads/2024/05/la-calera-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-6-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/san_morelia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/la-calera-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-6-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/san_morelia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/la-calera-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-6-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/san_morelia-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Parroquia San Pedro Claver</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección:  Centro Urbano de Cartagena del Chairá
+Persona de contacto: Diócesis de Florencia
+Por llevar el nombre de “Cartagena”, Monseñor Ángel Cunibertti, por entonces obispo del Vicariato Apostólico de Florencia, y su primer párroco el Padre Bruno Del Piero, quien también la diseñó y dirigió su obra, dedicaron la Parroquia bajo la protección de San Pedro Claver.  Consta de una sola nave y una torre campanario de 20m de altura aprox.  En la parte superior de la fachada se encuentra un vitral en honor al patrono de la parroquia.  En esta parroquia existen tres campanas consagradas mediante la bendición ofrecida por Monseñor Ángel Cunibertti, siendo párroco el reverendo Bruno del Piero. Éstas están esculpidas en alto relieve con los nombres: Santísima Virgen del Carmen, San Pedro Claver, y Santo Ángel de la Guarda.
+INDICACIONES PARA EL ACCESO
+Se puede acceder al municipio por vía terrestre desde Florencia por una carretera en buen estado y por vía fluvial desde los municipios de San Vicente y Puerto Rico.
+"FUENTE: ALCALDÍA DE CARTAGENA DEL CHAIRÁ"</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/parroquia-san-pedro-claver/</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Cartagena del Chaira</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>PARROQUIA SAN PEDRO CLAVER</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección:  Centro Urbano de Cartagena del Chairá</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>(8) 4318138</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/san_pedro_claver-768x1024.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Parroquia de San Isidro Labrador</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección:  Centro Poblado de Remolinos del Caguán
+Edificio construido en 1986 por el párroco Giacinto Franzoi en forma Hexagonal, de estilo gótico, asemejando las malocas indígenas, cuenta con tres niveles siendo el superior el campanario. Como dato curioso se tiene que el Cristo que se encuentra dentro de la parroquia es una escultura de aproximadamente 2 m de altura elaborada con tornillos, tuercas y demás objetos metálicos reciclados, se desconoce el autor de la obra.
+INDICACIONES PARA EL ACCESO
+Se toma una embarcación en el puerto principal y se recorren aproximadamente 80 Km río Caguán abajo hasta divisar la población a orillas del río.
+"FUENTE: ALCALDÍA DE CARTAGENA DEL CHAIRÁ"</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/parroquia-de-san-isidro-labrador/</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Cartagena del Chaira</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>PARROQUIA DE SAN ISIDRO LABRADOR</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección:  Centro Poblado de Remolinos del Caguán</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/san_isidro.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Instituto municipal de Cultura, Recreación, Deporte y Turismo</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección:  Centro Urbano de Cartagena del Chairá
+Creado como instituto descentralizado en el año 2003.  En sus instalaciones se orientan clases de danza, música y teatro principalmente. Su arquitectura moderna, construida en concreto.
+INDICACIONES PARA EL ACCESO
+Se puede acceder al municipio por vía terrestre desde Florencia por una carretera en buen estado y por vía fluvial desde los municipios de San Vicente y Puerto Rico.
+"FUENTE: IDCTC – JENNY ANDREA LÓPEZ"</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Entes de Gobierno, Parques y Zonas publicas, Entes de Gobierno, Entes de Gobierno, Centro Cultural</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/instituto-municipal-de-cultura-recreacion-deporte-y-turismo/</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Cartagena del Chaira</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>INSTITUTO MUNICIPAL DE CULTURA, RECREACIÓN, DEPORTE Y TURISMO</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección:  Centro Urbano de Cartagena del Chairá</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/instituto_municipal_de_cultura.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Hospital Local De Cartagena del Chairá</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección:  Centro Urbano de Cartagena del Chairá
+Hospital de Primer grado. Construido por la Misión Médica en ferro concreto, de arquitectura colonial ya que cuenta con dos patios internos, atiende la población de Cartagena del Chairá.
+INDICACIONES PARA EL ACCESO
+Se puede acceder al municipio por vía terrestre desde Florencia por una carretera en buen estado y por vía fluvial desde los municipios de San Vicente y Puerto Rico.
+"FUENTE: ALCALDÍA DE CARTAGENA DEL CHAIRÁ"</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Entidades de Salud, Entidades de Salud, Entidades de Salud, Entidades de Salud</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/hospital-local-de-cartagena-del-chaira/</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Cartagena del Chaira</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>HOSPITAL LOCAL DE CARTAGENA DEL CHAIRÁ</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección:  Centro Urbano de Cartagena del Chairá</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/hospital_local.jpg | https://caqueta.travel/wp-content/uploads/2024/05/centro_de_salud_albania.png | https://caqueta.travel/wp-content/uploads/2024/05/salud-montana-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/centro_de_salud_-_morelia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/centro_de_salud_albania.png | https://caqueta.travel/wp-content/uploads/2024/05/salud-montana-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/centro_de_salud_-_morelia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/centro_de_salud_albania.png | https://caqueta.travel/wp-content/uploads/2024/05/salud-montana-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/centro_de_salud_-_morelia-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Parroquia de San Juan Bautista</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>La parroquia  fue creada por decreto No. 6 el 11 de julio de 1960, su primer párroco fue el padre Juan Micheli misionero de la consolata, la primera piedra fue bendecida en el año de 1961 por Monseñor Ángel Cuniberti, es consagrada a San Juan Bautista, la gran mayoría de los habitantes del Doncello son católicos, su fiesta patronales celebra el 24 de Julio. Atiende 13 barrios en el área urbana y 56 veredas. Los centros de oración existen en la Libertad, Berlín, Puerto Manrique y Maguaré, atendidos por 9 laicos, 21 catequistas y 5 religiosos. Existen otras sectas evangélicas como adventistas y pentecostales.
+FUENTE: INSTITUTO DEPARTAMENTAL DE CULTURA Y TURISMO</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/parroquia-de-san-juan-bautista/</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>El Doncello</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>PARROQUIA DE SAN JUAN BAUTISTA</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/parroquia_de_san_juan_bautista_-_el_doncello.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Santuario del señor de los milagros</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>El santuario del Señor de los milagros es un sitio cerrado construido por los creyentes del municipio del Doncello con ayuda del vicariato, recordemos que en el municipio la mayoría de habitantes son católicos.
+Semanalmente se realizan misas en este santuario.  Que poco a poco se ha ido convirtiendo en un segundo templo religioso en el municipio.
+FUENTE: INSTITUTO DEPARTAMENTAL DE CULTURA Y TURISMO</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/santuario-del-senor-de-los-milagros/</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>El Doncello</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>SANTUARIO DEL SEÑOR DE LOS MILAGROS</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/santuario_del_senor_de_los_milagros_-_el_doncello.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Chocaguán</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Centro Poblado de Remolinos del Caguán
+Persona de contacto: Rodrigo Velaidez
+Surge en 1989, en la Inspección de Remolinos del Caguán, bajo la iniciativa del Párroco Giacinto Franzoi como un programa de seguridad alimentaria cuyo slogan es ”SI AL CACAO NO A LA COCA” inicialmente se creó la asociación de cacaoteros en la zona y posteriormente con el apoyo de Minagricultura, Sena y otras instituciones se creó la empresa dedicada a la producción y comercialización de Chocolate amazónico a través de la cual los asociados y campesinos de la zona pueden acceder a una alternativa de trabajo y generación de ingresos que permita el desarrollo integral de las familias beneficiarias.  La planta procesadora tiene una capacidad para el procesamiento de 1500 lbs/mes pero en la actualidad solo se producen aproximadamente 750 lbs/mes. En el año 2004 esta empresa en cabeza de su fundador el padre Jacinto ganó el Premio Nacional de Paz, entregado por la ONU y otras instituciones. El chocolate producido es el tercer mejor chocolate a nivel nacional gracias a su agradable sabor y aroma.  Actualmente, dentro de su gama de productos se ofrece el chocolate de mesa en presentaciones de una y media libra y además se exportan a Italia las Chocolatinas rellenas con dulces de frutales amazónicos.
+INDICACIONES PARA EL ACCESO
+Se toma una embarcación en el puerto principal y se recorren aproximadamente 80 Km río Caguán abajo hasta divisar la población a orillas del río.
+"FUENTE: IDCTC – JENNY ANDREA LÓPEZ"</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Empresa, Productos Alimenticios, Productos Alimenticios</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/chocaguan/</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Cartagena del Chaira</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>CHOCAGUÁN</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Centro Poblado de Remolinos del Caguán</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>3107774930</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/chocaguan.jpg | https://caqueta.travel/wp-content/uploads/2024/05/chocaguan1.jpg | https://caqueta.travel/wp-content/uploads/2024/05/chocaguan_5-805x1024.gif | https://caqueta.travel/wp-content/uploads/2024/05/chocaguan.jpg | https://caqueta.travel/wp-content/uploads/2024/05/chocaguan1.jpg | https://caqueta.travel/wp-content/uploads/2024/04/lacteos.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Parque de la virgen</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Ubicado en la entrada principal al centro del Casco urbano, este parque cuenta con un monumento a la virgen, zona verde y su arquitectura es en forma triangular dividiendo la vía principal. Sus alrededores están perfectamente arborizados y se encuentra en buen estado de conservación.
+En un costado encontramos la denominada “zona rosa”.
+FUENTE: INSTITUTO DEPARTAMENTAL DE CULTURA Y TURISMO</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Parques y Zonas publicas, Entes de Gobierno</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/parque-de-la-virgen/</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>El Doncello</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>PARQUE DE LA VIRGEN</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/parque_de_la_virgen_-_el_doncello.jpg | https://caqueta.travel/wp-content/uploads/2024/05/instituto_municipal_de_cultura-640x360.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Ancianato Doncello</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Esta obra social de vital importancia para los adultos mayores del municipio, se encuentra en buen estado, cuenta con amplios espacios zonas verdes y sitios para la recreación.
+FUENTE: INSTITUTO DEPARTAMENTAL DE CULTURA Y TURISMO</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Entes de Gobierno, Entidad de Cuidado, Entes de Gobierno, Entes de Gobierno, Centro Cultural, Entes de Gobierno</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/ancianato-doncello/</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>El Doncello</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>ANCIANATO DONCELLO</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/ancianato_-_el_doncello.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Casa de la pastoral social, antiguo colegio Cristóbal Colon</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>La casa de la pastoral Social hace parte del conjunto parroquial, aquí se encuentra la vivienda y alojamiento de los sacerdotes y religiosos.
+Se constituyo inicialmente como el primer colegio de la región con el nombre de “Cristóbal Colon”
+FUENTE: INSTITUTO DEPARTAMENTAL DE CULTURA Y TURISMO</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Centros Espirituales, Entes de Gobierno, Centros Espirituales, Centros Espirituales, Entes de Gobierno</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/casa-de-la-pastoral-social-antiguo-colegio-cristobal-colon/</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>El Doncello</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>CASA DE LA PASTORAL SOCIAL, ANTIGUO COLEGIO CRISTÓBAL COLON</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_pastoral_social_antiguo_colegio_cristobal_colon_-_el_doncello.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Escultura san Isidro</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Tallado en madera italiana, traído y realizado por encargo del padre Juan Demichelis, primer párroco de la Iglesia San Juan Bautista, ubicado en su interior, con una excelente acabado y estado de conservación.
+Tiene una altura aproximada de 200 cm y una base de 80 cm aproximadamente.
+FUENTE: INSTITUTO DEPARTAMENTAL DE CULTURA Y TURISMO</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/escultura-san-isidro/</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>El Doncello</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>ESCULTURA SAN ISIDRO</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/escultura_san_isidro_-_el_doncello_0.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Escultura san Juan Bautista</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Tallado en madera italiana, traído y realizado por encargo del padre Juan Demichelis, primer párroco de la Iglesia San Juan Bautista, ubicado en su interior, con una excelente acabado y estado de conservación.
+Tiene una altura aproximada de 200 cm y una base de 80 cm aproximadamente.
+FUENTE: INSTITUTO DEPARTAMENTAL DE CULTURA Y TURISMO</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/escultura-san-juan-bautista/</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>El Doncello</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>ESCULTURA SAN JUAN BAUTISTA</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/escultura_san_juan_bautista_-_el_doncello.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Escultura a la Virgen del Carmen</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Esta escultura fue tallada en madera de Ciprés por artistas  italianos,  traída  y realizada por encargo del padre Juan Demichelis, primer párroco de la Iglesia San Juan Bautista, ubicado en su interior, con un excelente acabado y estado de conservación.
+Tiene una altura aproximada de 200 cm y una base de 80 cm aproximadamente.
+FUENTE: INSTITUTO DEPARTAMENTAL DE CULTURA Y TURISMO</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/escultura-a-la-virgen-del-carmen/</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>El Doncello</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>ESCULTURA A LA VIRGEN DEL CARMEN</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/escultura_a_la_virgen_del_carmen_-_el_doncello.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Escultura Cristo crucificado principal</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Tallado en madera italiana, traído y realizado por encargo del padre Juan Demichelis, primer párroco de la Iglesia San Juan Bautista, ubicado en su interior, con una excelente acabado y estado de conservación.
+FUENTE: INSTITUTO DEPARTAMENTAL DE CULTURA Y TURISMO</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/escultura-cristo-crucificado-principal/</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>El Doncello</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>ESCULTURA CRISTO CRUCIFICADO PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/escultura_cristo_crucificado_principal_-_el_doncello.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Cruz del Anaya</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Monumento construido por una misión Italiana, organizada y solicitada por el padre Juan Demichelis.
+Teniendo en cuenta la ubicación del Municipio frente al rio Anaya, el cual amenazaba con desbordarse y acabar con el pueblo se solicito esta obra y se bendijo, esta cruz protegería al municipio calmando la aguas de rio, por eso fue construida en hierro de mas de 2,5 mts de altura y anclada en concreto al suelo.
+FUENTE: INSTITUTO DEPARTAMENTAL DE CULTURA Y TURISMO</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/cruz-del-anaya-2/</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>El Doncello</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>CRUZ DEL ANAYA</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/cruz_del_anaya_-_el_doncello-1.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Monumento Concepción de María</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Monumento construido por solicitud de la comunidad ubicada a los alrededores del parque, los cuales le solicitaron al padre Juan Demichelis, la adecuación de este lugar de encuentro de muchos habitantes de la región.
+En la época de la bonanza del arroz, se comercializaba en la calle, por lo cual se construyo el parque para encuentro y agradecimiento a la Concepción de María, monumento ubicado en medio del parque, con un excelente estado de conservación.
+FUENTE: INSTITUTO DEPARTAMENTAL DE CULTURA Y TURISMO</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/monumento-concepcion-de-maria/</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>El Doncello</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>MONUMENTO CONCEPCIÓN DE MARÍA</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/monumento_concepcion_de_maria_-_el_doncello.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Cuadros de la parroquia san Juan Bautista, los colonos y los humedales</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Estos cuadros al oleo se pintaron por solicitud de la casa de la cultura, el 20 de Septiembre de 1998 para lo cual se le entregaron los materiales de trabajo al artista que según versiones, era un profesor de un colegio del municipio de apellido millan, el cual luego de pintarlos desapareció del municipio y hasta la fecha no se tiene noticia de él.
+FUENTE: INSTITUTO DEPARTAMENTAL DE CULTURA Y TURISMO</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Centro Cultural, Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/cuadros-de-la-parroquia-san-juan-bautista-los-colonos-y-los-humedales/</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>El Doncello</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>CUADROS DE LA PARROQUIA SAN JUAN BAUTISTA, LOS COLONOS Y LOS HUMEDALES</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/cuadros_de_la_parroquia_san_juan_bautista_los_colonos_y_los_humedales_-_el_doncello.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Parroquia Nuestra Señora Del Perpetuo Socorro</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Construida después de la fundación del municipio en 1965, por la orden de los Consolatos y dirigida por el P. Bartolomé Rossetto, forma un conjunto con la capilla, la casa cural, el colegio y la atención pastoral.
+De estilo moderno, con una fachada plana rematada por el campanario con la estatua de Nuestra Señora del Perpetuo Socorro, constituida en una sola nave.  Es un bien inmueble arquitectónico  de La Montañita, que marca un hito con la fundación del municipio.
+FUENTE: IDCTC</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/parroquia-nuestra-senora-del-perpetuo-socorro/</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>La Montañita</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>PARROQUIA NUESTRA SEÑORA DEL PERPETUO SOCORRO</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/parroquia_0.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Palacio de las Bellas Artes</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: 
+Carrera 6° con Calle 5 Esquina B/ Simón Bolívar
+En el Palacio de Bellas Artes funcionan las principales entidades encargadas de la cultura del municipio, igualmente hacen parte la Biblioteca pública y la Emisora local. El edificio consta de 2 plantas construidas en el año 2000.
+En el  Palacio de Bellas Artes funcionan las principales entidades encargadas de la cultura del municipio, igualmente hacen parte la Biblioteca pública y la Emisora local. El edificio consta de 2 plantas construidas en el año 2000.
+Desde hace 9 años se tienen conformados grupos de danza, teatro y música, igualmente la casa de cultura permanentemente dicta talleres con el fin de formar un grupo de gestores culturales.
+FUENTE: IDCTC</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Centro Cultural, Centro Cultural, Centro Cultural, Centro Cultural</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/palacio-de-las-bellas-artes/</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>La Montañita</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>PALACIO DE LAS BELLAS ARTES</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/palaciobellasartes.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/cuadros_de_la_parroquia_san_juan_bautista_los_colonos_y_los_humedales_-_el_doncello-539x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/palacio_de_las_bellas_artes_y_la_cultura_-_morelia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/cuadros_de_la_parroquia_san_juan_bautista_los_colonos_y_los_humedales_-_el_doncello-539x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/palacio_de_las_bellas_artes_y_la_cultura_-_morelia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/cuadros_de_la_parroquia_san_juan_bautista_los_colonos_y_los_humedales_-_el_doncello-539x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/palacio_de_las_bellas_artes_y_la_cultura_-_morelia-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Alcaldía de la Montañita</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: 
+Carrera 5 Nº 4-14
+Edificio sede de la Alcaldía Municipal, funcionan aquí todas las oficinas administrativas de dicha entidad territorial. Consta de una sola planta, de arquitectura colonial ya que presenta un patio interno alrededor del cual se encuentran las  diferentes oficinas.</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Entes de Gobierno, Entes de Gobierno, Entes de Gobierno, Centro Cultural</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/alcaldia-de-la-montanita/</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>La Montañita</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>ALCALDÍA DE LA MONTAÑITA</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: 
+Carrera 5 Nº 4-14</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/alcaldia1-1024x768.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Centro de Salud La Montañita</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: 
+Carrera 6 No. 6-62
+Este centro hospitalario tiene un cubrimiento municipal y está ubicado en la carrera 6 No. 6-62 del centro de la localidad, construido en el año de1973, presta el servicio de salud de primer y segundo nivel en el departamento. Es propiedad del hospital María Inmaculada de Florencia.
+Este centro de salud depende del Hospital María Inmaculada, construido en el año de 1973, presta el servicio de salud de primer y segundo nivel, presta servicios de Medicina General, Servicios de Odontología, Urgencias, Ambulatorias, Primeros Auxilios.
+FUENTE: ALCALDÍA DE MONTAÑITA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Entidades de Salud, Entidades de Salud, Entidades de Salud, Entidades de Salud</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/centro-de-salud-la-montanita/</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>La Montañita</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>CENTRO DE SALUD LA MONTAÑITA</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: 
+Carrera 6 No. 6-62</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/salud-montana.jpg | https://caqueta.travel/wp-content/uploads/2024/05/centro_de_salud_albania.png | https://caqueta.travel/wp-content/uploads/2024/05/hospital_local-604x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/centro_de_salud_-_morelia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/centro_de_salud_albania.png | https://caqueta.travel/wp-content/uploads/2024/05/hospital_local-604x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/centro_de_salud_-_morelia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/centro_de_salud_albania.png | https://caqueta.travel/wp-content/uploads/2024/05/hospital_local-604x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/centro_de_salud_-_morelia-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Parroquia de María Auxiliadora</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>El primer templo parroquial fue una capilla elaborada en madera ubicada en el lugar que ocupa actualmente el teatro parroquial, en esa época para celebrar los sacramentos venia de Belén de los Andaquies cada mes un sacerdote a oficiar misas, bautizos y matrimonios. Hasta que el padre Gustavo Ortega junto con los habitantes del pueblo se propusieron construir un nuevo templo más amplio, fue así como el Padre Francisco Fellino hizo los planos y construcción del nuevo templo, ayudado por el apoyo incondicional de la profesora Luz Stella Calderón de Ochoa quien con actividades como bazares levantaron el templo en obra negra.
+El 11 de enero de 1971 según decreto No. 119 se crea la nueva parroquia de María Auxiliadora proclamada por Monseñor Ángel Cuniberti quien nombro al padre Juan Salateo como primer párroco. El 30 de noviembre de 1983 el padre Álvaro Serna Álzate reconstruyo la casa parroquial, la casa cural y renovó el templo parroquial como están en la actualidad.
+El templo parroquial es de arquitectura muy sencilla de una sola planta, en la fachada se puede apreciar la imagen de la virgen, al igual que en su interior encontramos un altar en honor a María Auxiliadora, la fiesta patronal se celebra el 24 de mayo.
+La parroquia cuenta con catequistas y cooperadores laicos. Existe un Consejo Parroquial, el grupo juvenil, la renovación y la Infancia Misionera. A esta parroquia pertenecen 24 veredas.
+FUENTE: LUZ ADRIANA PÉREZ RIVERA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/parroquia-de-maria-auxiliadora/</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Morelia</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>PARROQUIA DE MARÍA AUXILIADORA</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/parroquia_de_maria_auxiliadora_-_morelia.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Casa Cural</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>En una época la Casa Cural fue adecuada como Casa de Convivencias, donde se realizaban encuentros y reuniones pastorales. Está al servicio de la Vicaria del Sagrado Corazón de Jesús (Vicaria del Sur), desde el 30 de noviembre de 1983, el grupo de trabajo de la casa cural realiza un meritorio trabajo de promoción social y pastoral en las diferentes parroquias.
+FUENTE: LUZ ADRIANA PÉREZ RIVERA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/casa-cural/</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Morelia</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>CASA CURAL</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/casa_cural_-_morelia.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Alcaldía Municipal de El Morelia</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>La primera sede de la alcaldía del corregimiento del Bodoquero fue elaborada en tabla, desde esta pequeña casa se empezó a construir toda la historia del Municipio de Morelia a cargo del primer corregidor Peregrino García.
+La primera sede de la alcaldía del corregimiento del Bodoquero fue elaborada en tabla, desde esta pequeña casa se empezó a construir toda la historia del Municipio de Morelia a cargo del primer corregidor Peregrino García, luego de la avalancha cuando se dio la inauguración del nuevo pueblo de Morelia la alcaldía empezó a funcionar en una casa antigua ubicada en el sitio que en la actualidad funcionan las oficinas administrativas de dicha entidad territorial. En el interior encontramos varias obras del maestro Heriberto Ariza Guerra que adornan las instalaciones como los cuadros en oleo del Atardecer de Cananguchales, Salto de la Diabla y un mural que refleja la diversidad de fauna y flora del municipio.
+FUENTE: LUZ ADRIANA PÉREZ RIVERA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Entes de Gobierno, Entes de Gobierno, Entes de Gobierno, Centro Cultural</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/alcaldia-municipal-de-el-morelia/</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Morelia</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>ALCALDÍA MUNICIPAL DE EL MORELIA</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal_de_el_morelia.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal_de_el_morelia.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal_de_el_morelia_2.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal_de_el_morelia.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal_de_el_morelia.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Edificio Estación de Policía de Morelia</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Inaugurada en el periodo del alcalde Serafín Suarez Calderón, cuando el dona el lote a la Policía Nacional según acuerdo 003 del 03 febrero de 1998, inaugurada por el Teniente Coronel Henry Caicedo.
+Inaugurada en el periodo del alcalde Serafín Suarez Calderón, cuando el dona el lote a la Policía Nacional según acuerdo 003 del 03 febrero de 1998, inaugurada por el Teniente Coronel Henry Caicedo. La edificación fue construida en el 2002 y entregada en el 2003 construido por el arquitecto Librado Ramírez, La instalación consta de 2 plantas con cocina, baterías sanitarias, área de seguridad, dormitorio, capacidad para 32 policías.
+FUENTE: LUZ ADRIANA PÉREZ RIVERA</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Fuerzas Militares</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/edificio-estacion-de-policia-de-morelia/</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Morelia</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>EDIFICIO ESTACIÓN DE POLICÍA DE MORELIA</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/edificio_estacion_de_policia_de_morelia.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Palacio de las Bellas Artes y la Cultura</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Es el epicentro de la cultura del municipio aquí funciona la biblioteca pública municipal la cual fue inaugurada el pasado 26 de mayo de 2009, con una inversión de más de $100 millones la red pública de bibliotecas del Ministerio de Cultura coloco a disposición de los morelianos más de 2.500 libros, material audiovisual, computador y el programa para el manejo de colecciones.
+Es el epicentro de la cultura del municipio aquí funciona la biblioteca pública municipal la cual fue inaugurada el pasado 26 de mayo de 2009, con una inversión de más de $100 millones la red pública de bibliotecas del Ministerio de Cultura coloco a disposición de los morelianos más de 2.500 libros, material audiovisual, computador y el programa para el manejo de colecciones.
+FUENTE: JESÚS EDILBERTO RAMÍREZ CEBALLOS</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Centro Cultural, Centro Cultural, Centro Cultural, Centro Cultural</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/palacio-de-las-bellas-artes-y-la-cultura/</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Morelia</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>PALACIO DE LAS BELLAS ARTES Y LA CULTURA</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/palacio_de_las_bellas_artes_y_la_cultura_-_morelia.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/cuadros_de_la_parroquia_san_juan_bautista_los_colonos_y_los_humedales_-_el_doncello-539x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/palaciobellasartes-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/cuadros_de_la_parroquia_san_juan_bautista_los_colonos_y_los_humedales_-_el_doncello-539x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/palaciobellasartes-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/cuadros_de_la_parroquia_san_juan_bautista_los_colonos_y_los_humedales_-_el_doncello-539x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/palaciobellasartes-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Catedral Nuestra Señora de Lourdes</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Su historia se remonta a finales del Siglo XIX, el 06 de agosto de 1.906 cuando el cauchero Urbano Gutiérrez, compra una estatua de la Virgen como agradecimiento, el Padre Lucas Ibarra la bendijo  y la proclamo patrona del lugar con el nombre de Iglesia de la Santísima Virgen de Lourdes de Florencia.
+La primera construcción se realizo en  1908 con un rancho en madera levantado por los colonos, años más tarde en 1916 se construyo el segundo templo bajo la dirección de Fray Jacinto María de Quito, luego  el 20 de julio 1932 bajo la dirección del  Fray español Jaime de Igualada se inicia la obra, que se bendijo el 11 de febrero de 1937 de la iglesia actual.
+ARQUITECTURA: Su estilo republicano con inspiración gótica se detalla en su fachada compuesta por 3 naves terminadas en pirámide, sus arcos, columnas con capitel, vitrales y su techo adornado con arcos de medio punto que formas figuras triangulares .Se destaca la gruta de la Virgen de Lourdes traída de Italia.
+En la cripta reposan los restos del Fray Jaime de Igualada, entre otros sacerdotes. Tiene capacidad para 600 personas y ofrece los  servicios religiosos todos los días.
+FUENTE: LUZ ADRIANA PÉREZ</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/catedral-nuestra-senora-de-lourdes/</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>CATEDRAL NUESTRA SEÑORA DE LOURDES</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/catedral_nuestra_senora_de_lourdes_-_florencia_0-768x1024.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Parroquia Corazón Inmaculado de María</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Es la segunda iglesia construida en Florencia. Edificada  por el padre consolato Ángel Curiberti el 08 de diciembre de 1966, cuenta con casa cural, salón parroquial.
+En esta iglesia encontramos una estatua de la virgen de la Consolata, traída de Italia y elaborada en madera de árbol de ciprés fue donada inicialmente a la parroquia del municipio de Albania pero devuelta por el corregidor de este municipio en el año de 1952, luego paso a manos  del municipio de Morelia, donde estuvo a la intemperie, hasta que en una visita de los misioneros consolatos la rescataron, para darla a la parroquia del barrio torasso, fue restaurada y coronada por el obispo.
+FUENTE: LUZ ADRIANA PÉREZ</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/parroquia-corazon-inmaculado-de-maria/</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>PARROQUIA CORAZÓN INMACULADO DE MARÍA</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/parroquia_corazon_inmaculado_de_maria_-_florencia_0-1024x768.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Templo de los Gregorianos</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Es un templo construido hace aproximadamente 40 años en medio de las montañas, aquí encontramos casas comunales con forma de maloca, de acuerdo a los diferentes departamentos de Colombia, en los años de existencia del creador de esta religión, se hacían sanaciones. Son muchas las personas que asisten a orar a este templo,  puede asistir cualquier persona sin importar la religión o creencia. Está prohibido tomar fotografías dentro del templo.
+FUENTE: LEONARDO GUALY MONTEALEGRE</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/templo-de-los-gregorianos/</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>TEMPLO DE LOS GREGORIANOS</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/templo_de_los_gregorianos_-_florencia_0.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Santuario Divino Niño</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Cuenta uno de los colonos el señor Francisco Quintero que cuando el conflicto colombo peruano él prestaba servicio militar y los enviaron abrir esta vía a pica y pala, fue ahí cuando conoció a la señora que había colocado la primera imagen en el año de 1932, a su esposo lo habían asesinado junto con su hijo debajo de la piedra, por eso había colocado esa imagen para que siempre alumbrara el sitio. Los vehículos empezaron a transitar hacia el año de 1945 y eso fue deteriorando la imagen, en el año de 1948 un conductor tuvo un accidente en el antiguo puente de palo, se encomendó al Divino Niño cuando el carro empezó a rodar, el señor llego al abismo sin rasguño alguno, en acción de gracias cambio la imagen que estaba en la piedra. El 27 de agosto de 1989 la señora Ligia Contreras manda a celebrar la primera misa que fue oficiada por el sacerdote José Luis Álzate, asistieron 120 personas desde esa fecha se siguió  celebrando la misa el primer domingo del mes. La primera peregrinación se llevo a cabo el primer domingo del mes de octubre de 1989. A consecuencia de las inclemencias del tiempo 2 misioneras tuvieron la idea de la construcción de una pequeña capilla, sin dar espera en febrero de 1990 comenzaron a tramitar el permiso para la construcción el diseño fue realizado por el Arquitecto Rafael Alberto Farieta, (Q.E.P.D.), la obra la dirigió el ingeniero Pedro Antonio Farieta Gasca. En Junio de 1990 al completar las nueve peregrinaciones monseñor Fabián Marulanda López asistió para bendecir la primera piedra. El monto económico total de esta obra en ese tiempo fue calculado en $19.400.000, dinero donado por los transportadores de esta carretera, misioneros e infinidad de devotos caqueteños. Este templo es una hermosa unión de muchos granitos de arena de mano en mano, de corazón en corazón que permitió construir un centro de oración y devoción. El Santuario El Divino Niño, cuenta con una capacidad de recibir  a 500 personas aproximadamente.
+FUENTE: IDCTC</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/santuario-divino-nino/</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>SANTUARIO DIVINO NIÑO</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/santuario_divino_nino_-_florencia_0-768x1024.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Curia Episcopal</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Su creación data con Bula del 9 de diciembre de 1985, su  primer obispo fue Monseñor José Luis Serna Álzate. Cuenta con una hermosa arquitectura colonial reflejada en su patio interior adornada con bellos jardines y arcos de medio punto. En este lugar encontramos 3 grandes obras que hacen parte de la historia de Florencia: el busto del Fray Jaime de Igualada (arquitecto y constructor de la Catedral), la estatua original  de la Virgen de Nuestra Señora de Lourdes y las copias del acta manuscritas de la fundación de Florencia del capuchino Doroteo de Pupiales del año 1.902.  Los servicios con los que cuenta este acogedor lugar son: dormitorios, salones de conferencia, restaurante, cafetería, auditorio, venta de libros, alquiler de películas. Horario de atención de lunes a viernes de 8 a 11 Am y de 2 a 4 p.m.
+FUENTE: LUZ ADRIANA PÉREZ</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/curia-episcopal/</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>CURIA EPISCOPAL</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/curia_episcopal_-_florencia_0_0-1024x768.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Seminario Mayor San José</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Fundado por monseñor Ángel Cuniberti el día 19 de marzo de 1965 en conmemoración a la fiesta patronal de San José. Se crea  el seminario menor con el objetivo de tener un semillero de sacerdotes caquetenses. El primer rector fue el P. Bruno Kumer y el vicerector P. Bruno Lepier. El 01 de abril de ese mismo año llegan los primeros 39 seminaristas alumnos de los colegios vocacionales Juan Bautista Migani y La Salle. Los encargados de la construcción de estas instalaciones fueron los Padres  Ezio Ssoma Dosse y   Juan Viessi.  Actualmente funciona en estas instalaciones  el seminario menor San José y el Seminario Mayor Diocesano San José.
+FUENTE: LINA PAOLA ROA BUSTAMANTE</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/seminario-mayor-san-jose/</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>SEMINARIO MAYOR SAN JOSÉ</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/seminario_menor_san_jose_-_florencia-1024x768.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Monasterio Divino Redentor</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Monseñor Ángel Cuniberti sintió la necesidad de tener en el Caquetá un Monasterio de Clausura cuyas hermanas se dedicaran a hacer oración y penitencia por la comunidad caquetense incluida su iglesia. Fue así como un domingo 4 de abril de 1977 en terrenos donados por el señor Edolio Ramón se inaugura el Monasterio Divino Redentor perteneciente a la orden de las Hermanas Clarisas, hijas de Santa Clara de Asís. Desde hace más de treinta años el Caquetá cuenta con una comunidad religiosa dedicada a orar día y noche por el bienestar y la paz de este departamento. La Capilla que hace parte del Monasterio fue remodelada hace algunos años con motivo de la celebración de las bodas de plata de la presencia de las Clarisas en territorio caquetense. Las misas se celebran de lunes a sábado a las 5 pm y el día domingo a las 11 am.
+FUENTE: LINA PAOLA ROA BUSTAMANTE</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/monasterio-divino-redentor/</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>MONASTERIO DIVINO REDENTOR</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/monasterio_divino_redentor_-_florencia-1024x768.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Gobernación del Caquetá</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>La construcción del edificio de la gobernación empezó a fines del gobierno de Carlos Lleras Restrepo y fue inaugurado durante el gobierno de Misael Pastrana Borrero Siendo Intendente del Caquetá Gustavo Hernández Riveros.
+Hasta la fecha siguen funcionando en estas instalaciones las oficinas de la Gobernación del Caquetá y el recinto de la Asamblea departamental.
+FUENTE: LUZ ADRIANA PÉREZ</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Entes de Gobierno, Entes de Gobierno, Entes de Gobierno, Centro Cultural, Entes de Gobierno</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/gobernacion-del-caqueta/</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>GOBERNACIÓN DEL CAQUETÁ</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/edificio_gobernacion_del_caqueta_-_florencia_0.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Museo y sendero histórico del Caquetá Félix Artunduaga Bermeo</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>El Parador Turístico Villa Paz  ha construido esta obra para aportar a la identidad de los Caqueteños; en su recorrido a través de 12 estaciones de esculturas elaboradas en yeso por artistas Caqueteños, muestra el comportamiento histórico, cultural y social de quienes han forjado el departamento. El museo está enmarcado por los símbolos patrios de los 16 municipios del Caquetá.
+Durante el recorrido de 30 minutos también podemos apreciar las variedades de heliconias y árboles frutales como el arazá, guayaba, limón, guanábana, mandarino, chirimoya y guama.
+El recorrido en auto guiado a través de una grabación que cuenta las generalidades del departamento, mujer indígena, hombre indígena, el cauchero, los colonos, el aserrador, el campesino, el ganadero, la diosa de la vida, el coquero, la paz y la biodiversidad amazónica. Estos relatos fueron extraídos del libro del escritor Caqueteño Félix Artunduaga Bermeo y es un homenaje  a su legado cultural. Horario de atención de lunes a domingo en 4 recorridos. Tarifa general $5.000, estudiantes y grupos $3.000
+FUENTE: LUZ ADRIANA PÉREZ</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Museo, Museo</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/museo-y-sendero-historico-del-caqueta-felix-artunduaga-bermeo/</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>MUSEO Y SENDERO HISTÓRICO DEL CAQUETÁ FÉLIX ARTUNDUAGA BERMEO</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/museo_y_sendero_historico_del_caqueta_felix_artunduaga_bermeo_3_-_florencia-1024x768.jpg | https://caqueta.travel/wp-content/uploads/2024/05/museo_y_sendero_historico_del_caqueta_felix_artunduaga_bermeo_-_florencia-1024x768.jpg | https://caqueta.travel/wp-content/uploads/2024/05/museo_y_sendero_historico_del_caqueta_felix_artunduaga_bermeo_2_-_florencia-1024x768.jpg | https://caqueta.travel/wp-content/uploads/2024/05/museo_y_sendero_historico_del_caqueta_felix_artunduaga_bermeo_3_-_florencia-1024x768.jpg | https://caqueta.travel/wp-content/uploads/2024/05/museo_y_sendero_historico_del_caqueta_felix_artunduaga_bermeo_-_florencia-1024x768.jpg | https://caqueta.travel/wp-content/uploads/2024/05/museo-caqueta-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Plaza de Toros Santo Domingo</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>La Plaza de Toros Santo Domingo, ubicada en la vía Florencia Morelia, es un monumento en ruinas, esta era la propiedad que mas estimo en vida el capo Leónidas Vargas, La obra fue considerada como “monumento arquitectónico” en Florencia y fue utilizada por el rey de la coca del sur de Colombia para sus encuentros sociales. Jesús Gonzalo Galindo Escarpeta, conocido en el mundo de los toros como el “Timy” del Caquetá, está a cargo del predio, según consta en una resolución por la Dirección Nacional de estupefacientes en el 2007. Ingenieros caqueteños contribuyeron al diseño arquitectónico de la plaza de toros catalogada como la segunda mejor en Colombia. Leónidas Rico la inauguró en octubre de 1985, ese día hizo presencia en Florencia el Viejo como era llamado Leónidas con toda su familia, Pepe Cáceres, Antonio José Galán, Marinillo Negro, Cristóbal Cordobés y otros expertos toreros en Colombia aperturaron el sitio, mientras Rafael Orozco (q.e.p.d) cantante vallenato junto con Diomedes Díaz, prendía la fiesta. Hoy en día está totalmente abandonada y saqueada su adecuación cuesta aproximadamente $110 millones de pesos.
+FUENTE: WWW.MICAQUETA.COM</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Entes de Gobierno, Entes de Gobierno, Entes de Gobierno, Centro Cultural, Entes de Gobierno</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/4995/</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>PLAZA DE TOROS SANTO DOMINGO</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/plaza_de_toros_santo_domingo_-_florencia_0.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Hospital María Inmaculada</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>El 17 diciembre de 1941, en la presidencia del doctor Eduardo Santos se destinaron $60.000, para la construcción de un hospital civil en Florencia. Iniciándose la construcción en 1943 a cargo del arquitecto Eduardo Ferreira,  se le dio el nombre de Hospital María Inmaculada por  decreto comisarial 02 de 4 de abril de 1944. El 11 de noviembre de ese mismo año se  inaugura la sede  del hospital. El Ministerio de Salud, por medio de la resolución No. 14662, del 29 de octubre de 1990, clasifica al hospital regional, en hospital de segundo nivel de atención.
+La Asamblea departamental mediante ordenanza 014 del 5 de agosto de 1994 define al Hospital María Inmaculada como una empresa Social del estado y se inician los preparativos para la restructuración del hospital de acuerdo al régimen de la nueva ley. Cuenta con los servicios de urgencias las 24 horas, programas de vacunación, control y crecimiento, planificación familiar, toma de citologías, rayos x, hospitalización, sala de neonatos, salas de parto y cirugía.
+FUENTE: LUZ ADRIANA PÉREZ</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Entidades de Salud, Entidades de Salud, Entidades de Salud, Entidades de Salud</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/hospital-maria-inmaculada/</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>HOSPITAL MARÍA INMACULADA</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/hospital_maria_inmaculada_-_florencia_0.png | https://caqueta.travel/wp-content/uploads/2024/05/centro_de_salud_albania.png | https://caqueta.travel/wp-content/uploads/2024/05/hospital_local-604x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/salud-montana-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/centro_de_salud_albania.png | https://caqueta.travel/wp-content/uploads/2024/05/hospital_local-604x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/salud-montana-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/centro_de_salud_albania.png | https://caqueta.travel/wp-content/uploads/2024/05/hospital_local-604x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/salud-montana-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Hospital Comunal las Malvinas</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>El 23 de mayo de 1995, se firma el contrato de comodato y promesa de compraventa, sobre un lote terreno de propiedad del Servicio de Salud del Caquetá en cabeza del alcalde Héctor Orozco Orozco, comodato que se firma por 10 años a partir del 1 de mayo de 1995. Mediante acuerdo No. 025 del 21 de octubre de 196 del Consejo Municipal, crea el Hospital Comunal las Malvinas, como empresa social del estado.
+El diseño de la obra estuvo a cargo del arquitecto Jorge Enrique Jaramillo, la obra fue culminada el 9 de marzo de 1997 y el 11 de noviembre del mismo año, mediante acuerdo expiden facultades al Alcalde para ponerlo en funcionamiento.
+Presta servicios a la comunidad en consulta externa de medicina general, optometría, nutrición, citologías, laboratorio clínico, imágenes diagnósticas, odontología, terapia respiratoria, audiometría, promoción y prevención, unidad móvil de atención, entrega de medicamentos ambulatorios a desplazados, además cuenta con unidad móvil de atención básica y 2 ambulancias dotadas para la prestación del servicio. Servicio las 24 horas.
+FUENTE: LUZ ADRIANA PÉREZ</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Entidades de Salud, Entidades de Salud, Entidades de Salud, Entidades de Salud</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/hospital-comunal-las-malvinas/</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>HOSPITAL COMUNAL LAS MALVINAS</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/hospital_comunal_las_malvinas_-_florencia.png | https://caqueta.travel/wp-content/uploads/2024/05/centro_de_salud_albania.png | https://caqueta.travel/wp-content/uploads/2024/05/hospital_local-604x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/salud-montana-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/centro_de_salud_albania.png | https://caqueta.travel/wp-content/uploads/2024/05/hospital_local-604x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/salud-montana-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/centro_de_salud_albania.png | https://caqueta.travel/wp-content/uploads/2024/05/hospital_local-604x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/salud-montana-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Terminal de Transporte de Florencia</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>El 8 de mayo de 1990 se Inauguraron las instalaciones del Terminal de Transporte Terrestre de Florencia, anteriormente en este mismo lugar tuvo la sede el coliseo de ferias de Florencia. En la actualidad encontramos las taquillas de las siguientes empresas: Coomotor, Cootranscaquetá, Cootranshuila, Taxis Verdes, Coomotorflorencia, expreso Bolivariano, Transyarí, la Gaitana, entre otros.
+Sus Instalaciones cuentan también con zona de taxis y cajero automático, además de una amplia zona de cafetería y suvenir. También Posee un pequeño auditorio con capacidad para 100 personas y un altar a la virgen de las Mercedes (Virgen de los Conductores).
+FUENTE: LINA PAOLA ROA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Entes de Gobierno, Entes de Gobierno, Entes de Gobierno, Centro Cultural</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/terminal-de-transporte-de-florencia/</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>TERMINAL DE TRANSPORTE DE FLORENCIA</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/terminal_de_transporte_de_florencia_0.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Aeropuerto Gustavo Artunduaga Paredes</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Se empezó a construir en enero de 1947  por orden de Carlos Jiménez Gómez, inicialmente empezó a funcionar con la operación de la Aerolínea Avianca.
+El nombre del aeropuerto es un agradecimiento al gran impulsor de la aviación en el Caquetá el capitán Gustavo Artunduaga Paredes. Hoy en día operan 2 empresas comerciales Aires y Satena prestando el servicio de flujo de vuelos diarios de pasajeros y carga hacia el interior del país.
+Aeropuerto categoría II cuenta con una pista de 1.500 mts  de largo y 30 mts de ancho y con servicio de operación nocturna.
+FUENTE: FERNEY ORDOÑEZ</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Entes de Gobierno, Entes de Gobierno, Entes de Gobierno, Centro Cultural, Entes de Gobierno</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/aeropuerto-gustavo-artunduaga-paredes/</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>AEROPUERTO GUSTAVO ARTUNDUAGA PAREDES</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/aeropuerto_gustavo_artunduaga_paredes_-_florencia_0.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Restaurante Florencia Avalon Club</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: 
+kra 11 calle 8 esquina Zona rosa Avalon
+Celular: 
+(57) 311 4777145
+Facebook: 
+https://www.facebook.com/Restaurante-Florencia-Avalon-Club-133290246833764
+Correo electrónico: 
+maitebecerrav@gmail.com
+Avalon club es un elegante restaurante, con una variedad de platos a la carta de porciones completas o medias porciones de carnes a la parrilla, comida criolla, mariscos y pescados y comida italiana. También le ofrecemos unas deliciosas picadas y el servicio de almuerzo ejecutivo. Disfruta de los jugos naturales en agua o leche y en las tardes comidas rápidas, variedad de helados y ensaladas de frutas; de igual forma ofrecen el servicio de mesas románticas, con nuevo y elegante salón de eventos con aire acondicionado para reuniones sociales o empresariales.
+CÓMO LLEGAR
+Se toma la ruta 40 y 45 desde Bogotá hasta Neiva (319 km - 5 Horas 45 m). Se continúa por la ruta 45 desde Neiva hasta llegar a Altamira para continuar por la ruta 20 hasta Florencia (245 Kms - 4 Horas).
+VÍA TERRESTRE
+Distancia terrestre con relación a la capital del país: 595 Kl Tiempo estimado 10 Horas
+RUTA AÉREA
+Se puede llegar al sitio por vía área tomando la ruta Bogotá – Florencia (Tiempo aproximado 1 hora). Luego se continúa desde el Aeropuerto Nacional Gustavo Artunduaga Paredes hasta ingresar al centro de la ciudad de Florencia, en la kra 11 calle 8 esquina Zona rosa Avalon. Florencia (Caquetá).
+Servicios prestados: 
+Salón de eventos
+Restaurante
+Wi-fi
+Ventilador
+Aire acondicionado
+Bar</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Bar, Restaurante, Salon de Eventos, Actractivos Turisticos, Actractivos Turisticos, Hoteles, Actractivos Turisticos</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>maitebecerrav@gmail.com</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/restaurante-florencia-avalon-club/</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>RESTAURANTE FLORENCIA AVALON CLUB</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: 
+kra 11 calle 8 esquina Zona rosa Avalon</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>(57) 311 4777145</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/museo-caqueta-1-1024x532.jpg | https://caqueta.travel/wp-content/uploads/2024/05/avalon_0-1024x333.jpg | https://caqueta.travel/wp-content/uploads/2024/05/avalon_2.png | https://caqueta.travel/wp-content/uploads/2024/05/museo-caqueta-1-1024x532.jpg | https://caqueta.travel/wp-content/uploads/2024/05/avalon_0-1024x333.jpg | https://caqueta.travel/wp-content/uploads/2024/05/la-calera-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/san_morelia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/hotel_royal-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/la-calera-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/san_morelia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/hotel_royal-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/la-calera-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/san_morelia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/hotel_royal-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Museo Caquetá</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Calle 11 Carrera 13, Edificio Curiplaya Segundo Piso
+Persona de contacto: William Wilches Sánchez
+Facebook: https://www.facebook.com/museocaqueta/about?section=contact-info&amp;pnref=about
+Correo electrónico: Pendiente
+Página Web: www.museocaqueta.com
+El Museo Caquetá se concibe como un aporte a la recuperación de memoria histórica del Caquetá.</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Museo, Museo</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/museo-caqueta/</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>MUSEO CAQUETÁ</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Calle 11 Carrera 13, Edificio Curiplaya Segundo Piso</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/museo-caqueta-1024x532.jpg | https://caqueta.travel/wp-content/uploads/2024/05/museo_y_sendero_historico_del_caqueta_felix_artunduaga_bermeo_3_-_florencia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/museo_y_sendero_historico_del_caqueta_felix_artunduaga_bermeo_-_florencia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/museo_y_sendero_historico_del_caqueta_felix_artunduaga_bermeo_2_-_florencia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/museo_y_sendero_historico_del_caqueta_felix_artunduaga_bermeo_3_-_florencia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/museo_y_sendero_historico_del_caqueta_felix_artunduaga_bermeo_-_florencia-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Institución Educativa Cervantes</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>En 1935 nombraron como primera profesora a Inés Calderón Toledo quien luchó incansablemente en la consecución de auxilios y recursos para construir la primera escuela. Luego en 1940 el intendente Ricardo Pizarro mando a construir una escuela con 4 salones, dormitorio y cocina, creándose los grados segundos y terceros con más de 60 estudiantes, años más tarde en 1950 El intendente Ricardo compra 15 hectáreas de tierra a don Francisco Correa para la nueva ubicación de la comunidad Bodoquero y manda a construir una nueva escuela. En el año de 1968 la profesora Luz Stella Calderón de Ochoa quien se desempeño durante 48 años como docente en este municipio viendo la importancia que representaba para los graduandos de 5° de primaria seguir sus estudios, decide en compañía de los padres de familia y padre Juan Salateo viajar a Florencia y pedir la apertura de la educación de bachillerato en Morelia, como no habían salones suficientes para la apertura del nuevo grado la profesora ofrece dos salones que tenia sin utilizar en su casa que estaba ubicada donde hoy funciona la Vicaria del sur y se inicia el bachillerato, recibiendo el nombre de colegio María Auxiliadora. Años más tarde por el crecimiento de estudiantes gestionan con el Intendente de la época señor Hernando Turbay un aporte de $13.000 con los cuales compran una hectárea de terreno al señor Daniel Orozco, por medio de rifas, bazares y recolectas se construye la sede donde hoy funciona el Colegio Cervantes. Este nombre se escogió realizando una rifa con nombres de diferentes personajes, Antonio Nariño, Francisco de Paula y el ganador fue CERVANTES en memoria al máximo escritor de la letras hispanas Miguel de Cervantes Saavedra. En la actualidad se cuentan con 3 sedes físicas, 1 biblioteca, sala de química, física, 2 de informática, matemáticas, 3 zonas de esparcimiento deportivo (microfútbol, baloncesto, futbol), los estudiantes salen como bachilleres técnicos con énfasis en medio ambiente. Actualmente se educan a 725 jóvenes entre preescolar, primaria y bachillerato y cuentan con una planta de 33 docentes, 2 directivos y 12 administrativos.
+FUENTE: LUZ ADRIANA PÉREZ RIVERA</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Centros Educativos, Centros Educativos, Centros Educativos, Centros Educativos</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/institucion-educativa-cervantes/</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Morelia</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>INSTITUCIÓN EDUCATIVA CERVANTES</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/institucion_educativa_cervantes_-_morelia-1024x333.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ceres_albania.png | https://caqueta.travel/wp-content/uploads/2024/05/escuela_audiovisual.png | https://caqueta.travel/wp-content/uploads/2024/05/ceres_albania.png | https://caqueta.travel/wp-content/uploads/2024/05/escuela_audiovisual.png | https://caqueta.travel/wp-content/uploads/2024/05/ceres_albania.png | https://caqueta.travel/wp-content/uploads/2024/05/escuela_audiovisual.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Reserva Natural y Ecoturística Las Dalias</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección:
+Municipio La Montañita, Vereda Los Morros
+Persona de contacto:
+Jose Alfonso Ovalle
+Celular:
+3118059912
+Correo electrónico:
+ponchoovalle@hotmail.com
+El sitio denominado “Reserva Natural y Ecoturística Las Dalias", se trata de una Reserva Natural de aproximadamente de 80 hectáreas, de las cuales el 80% se encuentran como zona de conservación. Se destacan atractivos naturales como: Las quebradas "Agua Bonita y La Cajona" por donde se encuentran además dos (2) cárcavas o cuevas, un (1) cañón natural formado de rocas de 2 Kilómetros de longitud y senderos para la interpretación ambiental, avistamiento de aves, mamíferos, mariposas, murciélagos y flores silvestres; se puede practicar recorridos por la rivera de las quebradas y adelantar actividades de investigación, agroturismo, entre otros.
+CÓMO LLEGAR:
+Se toma la ruta 40 y 45 desde Bogotá hasta Neiva (319 km - 5 Horas 45 m). Se continúa por la ruta 45 desde Neiva hasta llegar a Altamira para continuar por la ruta 20 hasta Florencia (245 Kms - 4 Horas). Se continua por la ruta 65 Florencia – La Montañita (31 Kms - 33 Minutos). Y del casco urbano de La Montañita se continúa por la ruta 65 hasta el kilómetro 4 Vereda Los Morros a 5 minutos. El sitio se ubica a mano izquierda de la ruta 65.
+Distancia terrestre con relación a la capital del país: 595 Kl Tiempo estimado 10 Horas
+Distancia terrestre con relación a la capital del departamento: 30 Kl  Tiempo estimado 33 Minutos
+Distancia terrestre con relación al casco urbano más cercano: 4 Kl Tiempo estimado 5 Minutos
+RUTA AÉREA:
+Se puede llegar al sitio por vía área tomando la ruta Bogotá – Florencia (Tiempo aproximado 1 hora) y continuar por la vía terrestre 65 hasta el kilómetro 4 Vereda Los Morros (37 Minutos).
+"FOTOGRAFÍA: LAMONTANITA-CAQUETA.GOV.CO"
+Servicios prestados:
+Restaurante
+Camping
+Pesca deportiva</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Actractivos Turisticos, Actractivos Turisticos, Actractivos Turisticos, Actractivos Turisticos</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>ponchoovalle@hotmail.com</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/reserva-natural-y-ecoturistica-las-dalias/</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>La Montañita</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>RESERVA NATURAL Y ECOTURÍSTICA LAS DALIAS</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección:
+Municipio La Montañita, Vereda Los Morros</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>3118059912</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/04/entrada-cueva-montaita-2-1024x428.jpg | https://caqueta.travel/wp-content/uploads/2024/05/la-calera-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-6-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/san_morelia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/la-calera-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-6-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/san_morelia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/la-calera-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-6-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/san_morelia-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Hotel Campestre Las Garzas</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Kilómetro 2 Vía Florencia – Neiva
+Persona de contacto: Nancy Rojas Tobas
+Teléfonos: (8) 4369581 - (8) 4368850
+Celular: 3134626407
+Correo electrónico: contacto@hotelcampestrelasgarzas.com
+Página Web: www.hotelcampestrelasgarzas.com
+El sitio se trata de una construcción moderna en forma de terraza, ubicada cerca de la margen derecha del Río Hacha. Ubicación que ofrece al turista el disfrute de tan hermoso e importante atractivo natural, donde se puede hacer uso para la práctica de numerosas actividades, entre ellas senderismo, avistamiento de fauna y flora silvestre, natación en río, canotaje, disfrute de playa de río.
+Nº de habitaciones: 23
+Capacidad total de personas instaladas: 58
+CÓMO LLEGAR:
+Se toma la ruta 40 y 45 desde Bogotá hasta Neiva (319 km - 5 Horas 45 m). Se continúa por la ruta 45 desde Neiva hasta llegar a Altamira para continuar por la ruta 20 hasta el kilómetro 2 antes de ingresar a la ciudad de Florencia (243 Kms - 4 Horas). El sitio se ubica a mano izquierda de la ruta 65.
+VÍA TERRESTRE
+Distancia terrestre con relación a la capital del país: 595 Kl, Tiempo estimado 10 Horas
+Distancia terrestre con relación a la capital del departamento: 2 Kl, Tiempo estimado, 5 Minutos
+Distancia terrestre con relación al casco urbano más cercano: 2 Kl, Tiempo estimado, 5 Minutos
+RUTA AÉREA:
+Se puede llegar al sitio por vía área tomando la ruta Bogotá – Florencia (Tiempo aproximado 1 hora) y se continua por la vía terrestre 65 Florencia – Nieva kilómetro 2 Vereda La Primavera (5 Minutos).
+"FOTOGRAFÍAS: MCARVAJAL / FOTUR"</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Salon de Eventos, Actractivos Turisticos, Actractivos Turisticos, Finca</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>contacto@hotelcampestrelasgarzas.com</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/hotel-campestre-las-garzas/</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>HOTEL CAMPESTRE LAS GARZAS</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección: Kilómetro 2 Vía Florencia – Neiva</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>(8) 4369581 - (8) 4368850 | 3134626407 | Teléfonos: (8) 4369581 - (8) 4368850</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/screenshot_18_0-1024x493.jpg | https://caqueta.travel/wp-content/uploads/2024/05/la-calera-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-6-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-1-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/la-calera-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-6-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-1-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/la-calera-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-6-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/ferry-slid-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-1-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-5-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-4-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/paraiso-de-pedro-3-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Hospital Local Curillo</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección:
+Diagonal 7 no. 4-30
+Hospital de I y II nivel de atención cuenta con unidad de urgencias, pediatría, odontología, vacunación, además se presta servicio de ambulancia, rayos x, laboratorio clínico, sala de parto, 5 consultorios, 9 camas, 7 camillas. En las instalaciones laboran 4 personas como personal administrativo, 4 médicos y un personal asistencial de 12 entre auxiliares y jefes. En 1988 el Centro de Salud paso a ser el Hospital que en la actualidad se conoce.
+Indicaciones para el Acceso
+Se puede llegar a este bello municipio por vía terrestre desde Florencia, pasando por Morelia, Belén de Los Andaquíes, San José del Fragua y Albania. También se puede acceder al municipio por vía fluvial a través del río Caquetá desde los municipios de Solita y Solano.</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Entidades de Salud, Entidades de Salud, Entidades de Salud, Entidades de Salud</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/hospital-local-curillo/</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Curillo</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>HOSPITAL LOCAL CURILLO</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>4302140 | 4302060</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/hospital_curillo-1024x683.jpg | https://caqueta.travel/wp-content/uploads/2024/05/hotel_curillo-1024x333.jpg | https://caqueta.travel/wp-content/uploads/2024/05/hospital_curillo-1024x683.jpg | https://caqueta.travel/wp-content/uploads/2024/05/hotel_curillo-1024x333.jpg | https://caqueta.travel/wp-content/uploads/2024/05/centro_de_salud_albania.png | https://caqueta.travel/wp-content/uploads/2024/05/hospital_local-604x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/salud-montana-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/centro_de_salud_albania.png | https://caqueta.travel/wp-content/uploads/2024/05/hospital_local-604x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/salud-montana-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/centro_de_salud_albania.png | https://caqueta.travel/wp-content/uploads/2024/05/hospital_local-604x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/salud-montana-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Biblioteca Municipal de Cartagena del Chairá</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección:
+Centro Urbano de Cartagena del Chairá
+Correo electrónico:
+No aplica
+La Biblioteca Pública Municipal “DIOGENES SALDAÑA RODRIGUEZ” ubicada en las instalaciones del Centro Comunitario del Barrio Antioquia. Se inauguró el día 05 de marzo de 2008.  Construida en el año 2008, gracias al apoyo del Ministerio de Cultura, ubicada en el barrio Antioquia, cuenta con unas instalaciones con capacidad para 20 personas aproximadamente. Además cuenta con libros de todas las categorías, videos educativos, televisor, DVD, entre otros.
+INDICACIONES PARA EL ACCESO
+Se puede acceder al municipio por vía terrestre desde Florencia por una carretera en buen estado y por vía fluvial desde los municipios de San Vicente y Puerto Rico.
+"FUENTE:  IDCTC – JENNY ANDREA LÓPEZ."</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Entes de Gobierno, Entes de Gobierno, Entes de Gobierno, Centro Cultural, Entes de Gobierno</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/biblioteca-municipal-de-cartagena-del-chaira/</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Cartagena del Chaira</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>BIBLIOTECA MUNICIPAL DE CARTAGENA DEL CHAIRÁ</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Lugar o Dirección:
+Centro Urbano de Cartagena del Chairá</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/biblioteca_municipal_cartagena_del_chaira-1024x333.png | https://caqueta.travel/wp-content/uploads/2024/05/biblioteca_municipal_cartagena_del_chaira-1024x333.png | https://caqueta.travel/wp-content/uploads/2024/05/biblioteca_municipal_cartagena_del_chaira-1024x333.png | https://caqueta.travel/wp-content/uploads/2024/05/biblioteca_municipal_cartagena_del_chaira-1024x333.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_municipal.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_labania.png | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia_curillo-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/alcalddega_de_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/alcaldia--640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/casa_de_la_cultura_curillo-508x360.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Santuario Virgen del Carmen</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Este pequeño oratorio lo encontramos en predios de la finca de la familia Anturi ubicado a 300 mts del monumento del Ultimo Andaqui a la entrada al municipio, construida por esta familia entre los años de 1965 y 1969. Cada 16 de julio para la celebración  de la fiesta de la Virgen del Carmen, todos los conductores del municipio participan de una procesión que inicia en este oratorio y finaliza con la Santa eucaristía en la parroquia del Sagrado Corazón de Jesús.
+"FUENTE Y FOTOGRAFÍAS: GENNY LILLIBETH RENGIFO CARVAJAL"</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales, Centros Espirituales</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/santuario-virgen-del-carmen/</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Belen de los Andaquies</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>SANTUARIO VIRGEN DEL CARMEN</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/05/iglesia_virgen_del_carmen.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-del-carmen-1024x333.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_virgen_del_carmen.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-del-carmen-1024x333.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/iglesia_albania-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/virgen_2.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen_1.png | https://caqueta.travel/wp-content/uploads/2024/05/virgen-2-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_ntr_sra_del_carmen-640x360.jpg | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_nuestra_sessora_del_carmen_curillo-505x360.png | https://caqueta.travel/wp-content/uploads/2024/05/parroquia_del_carmen-640x360.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Caqueta Travel</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Lácteos Santa Cruz</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Diariamente esta empresa de lácteos produce quesos y quesillo con más de 6.000 litros de leche provenientes de las fincas ganaderas del Municipio de Albania, el mayor porcentaje de producción es enviado hacia el interior del país con destino al mercado de Bogotá y Cali principalmente. Esta empresa genera 6 empleos directos en promedio, ratificando el potencial lechero del sur del departamento.</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Productos Alimenticios, Empresa</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/directorio/lacteos-santa-cruz/</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>LÁCTEOS SANTA CRUZ</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>https://caqueta.travel/wp-content/uploads/2024/04/lacteos.png | https://caqueta.travel/wp-content/uploads/2024/05/chocaguan.jpg | https://caqueta.travel/wp-content/uploads/2024/05/chocaguan1.jpg | https://caqueta.travel/wp-content/uploads/2024/05/chocaguan_5-640x360.gif | https://caqueta.travel/wp-content/uploads/2024/05/chocaguan.jpg | https://caqueta.travel/wp-content/uploads/2024/05/chocaguan1.jpg</t>
         </is>
       </c>
     </row>
@@ -834,13 +5374,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -873,13 +5406,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -912,13 +5438,6 @@
           <t>Categoría Domestica</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993 - 040 de 2001</t>
@@ -951,13 +5470,6 @@
           <t>Categoría Hacienda</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -990,13 +5502,6 @@
           <t>Categoría Domestica</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993 - 040 de 2001</t>
@@ -1029,13 +5534,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993 - 040 de 2001</t>
@@ -1068,13 +5566,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -1107,13 +5598,6 @@
           <t>Categoría Arqueológica</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
           <t>Ord. 025 de 1992</t>
@@ -1146,13 +5630,6 @@
           <t>Categoría Institucional</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993 - 040 de 2001</t>
@@ -1185,13 +5662,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -1224,22 +5694,16 @@
           <t>Categoria Museos</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
           <t>Aporte Artistico- Musical | Jorge Villamil en sus canciones interpreta los sentimientos populares a traves de bambucos, pasillos, rajalenas, valses, joropos, guabinas y sanjuaneros que describen los paisajes, la belleza de las mujeres, los amores y desamores, las fiestas y los recuerdos de este prolifico compositor musical que tuvo como escenario de sus compositores toda la geografia colombiana. Entre su extenso legado musical figuran canciones que han hecho historia a lo largo y ancho del pais y en el exterior como Espuma, Al sur, El Barcino, Los Guaduales, Llamarada. Oropel, Brumas, Luna Roja, Si pasas por San Gil, Cantemos a la paz, el Yariceno, La Vaqueria, Los remansos, Noches de Plata, Llano Grande, El Canalete, Tambores de Pacande, Asi es Colombia, Matambo, Ibague tradicional y muchas otras cuyos nombres aparecen en el libro Huellas de Villamil del escritos Vicente Silva Vargas que describe magistralmente la vida y la obra del compositor. | Reconocimiento en el Huila EL Maestro Villamil ha recibido en el Huila significativos reconocimiento. En su honor el municipio de Neiva, con el nombre de “Cuidad Villamil”, construyo once (11) monumentos en representacion de igual numero de canciones, una Concha Acustica construida en el centro de la ciudad lleva su nombre. Y el concurso de composicion mas importante de Colombia, que se realiza en Neiva durante el Festival del Bambuco, tambien lo lleva. | Distinciones Nacionales Recibidas La cruz de Boyaca de la Presidencia de la republica, la Cruz de Comendador del Congreso, La Orden de la Democracia de la Camara de Representantes, la Gran Orden del Ministerio de Cultura, las Ordenes del Bunde, Pacande, al Merito Artistico y Martin Pomala por estamentos del Tolima, las Medallas de la Guabina, y el Tiple, Lorenzo Alcantuz, y Jose Antonio Galan, de Santander, La Cruz de Belalcazar de Cali, la Cruz de Oro del Valle del Cauca y 20 mas de distintos lugares de Colombia. | En su tierra natal ha recibido la Orden del Taitapuro, las Medalla Diego de Ospina y Medinilla, La Gaitana y la voragine, el Tambor de Oro, el Garzon de Oro y las Ordenes Joaquin Garcia Borrero y Jose Eustasio rivera. La “Orden de la Huilensidad” por la Fundacion por la Huilensidad “Jorge Villamil Cordovez” 2007. | Historia El Museo de la huilensidad “JORGE VILLAMIL”, es el resultado del esfuerzo de un grupo de huilenses que por iniciativa de la Reina Nacional del Bambuco Larissa Fernanda Calderon Ortiz, decidio impulsar su creacion como un legado de su reinado. La idea de impulsarlo acogio la recomendacion que al respecto hizo en el ano 2000 la Corporacion Huila Futuro, evitando asi que otros departamentos, como el Quindio y Antioquia, le arrebatara a este Departamento ese derecho teniendo en cuenta que el Maestro Villamil es huilense. | El punto de partida para desarrollar el proyecto fue la constitucion de la Fundacion por la Huilensidad “JORGE VILLAMIL”, con la mision de promoverlo, impulsarlo y adelantar las gestiones para montarlo y ponerlo al servicio del fortalecimiento de la cultura regional y el turismo del Huila. El Museo empezo a concretarse con la donacion que el Maestro le hizo a la Fundacion de la coleccion de 382 piezas museologicas y de la destinacion que hicieron los estudios, se elaboro el Guion y se efectuo el montaje por expertos contratados para el efecto. | A la coleccion de piezas donadas por el Maestro Villamil se le agregaron las aportadas por la Fundacion y por particulares. Uno de los casos mas significativos lo fue el aporte de la replica, construida a escala, de la que fue la casa de la hacienda del Cedral, que fuera de su padre, Jorge Villamil Ortega, en donde el compositor se crio y abrevo de los peones de la finca cafetera y de los campesinos de la zona de Vegalarga en el municipio de Neiva, las tonadas y el estilo autoctono de muchas de las 180 canciones que ha compuesto. Precisamente una de sus mas famosas canciones es “Hacienda del Cedral” que el artista evoca cuando canta “te llevo en mi cantar/ te llevo yo en mi recuerdo/ en esta tierra naci/ en ella tambien vivi/ y en ella quiero mi entierro”. | Ubicacion | Tercer piso del Bloque Cultural del Centro de Convenciones "Jose Eustasio Rivera", Neiva. Directora: Mari­a Ruth Arboleda</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>https://www.huila.gov.co/cultura-y-turismo/publicaciones/6140/legado-musical/</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1267,13 +5731,6 @@
           <t>Categoría Institucional</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993 - 040 de 2001</t>
@@ -1306,13 +5763,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -1345,13 +5795,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -1384,13 +5827,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993 - 040 de 2001</t>
@@ -1423,13 +5859,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -1462,13 +5891,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993 - 040 de 2001</t>
@@ -1501,13 +5923,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993 - 040 de 2001</t>
@@ -1540,13 +5955,6 @@
           <t>Categoría Industrial</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993 - 040 de 2001</t>
@@ -1579,13 +5987,6 @@
           <t>Categoría Domestica</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993 - 040 de 2001</t>
@@ -1618,13 +6019,6 @@
           <t>Categoría Urbanística</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993 - 040 de 2001</t>
@@ -1657,13 +6051,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -1696,13 +6083,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -1735,13 +6115,6 @@
           <t>Categoría Hacienda</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -1774,13 +6147,6 @@
           <t>Categoría Domestica</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
           <t>BICN</t>
@@ -1813,13 +6179,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
           <t>BICN</t>
@@ -1852,13 +6211,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -1891,13 +6243,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993 - 040 de 2001</t>
@@ -1930,13 +6275,6 @@
           <t>Categoría Urbanística</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993 - 040 de 2001</t>
@@ -1969,13 +6307,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
           <t>Ord. 007 de 1993 - 040 de 2001</t>
@@ -2008,13 +6339,6 @@
           <t>Categoría Domestica</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -2047,13 +6371,6 @@
           <t>Categoría Hacienda</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
           <t>Ord. 007 de 1993 - 040 de 2001</t>
@@ -2086,13 +6403,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993 - 040 de 2001</t>
@@ -2125,13 +6435,6 @@
           <t>Categoría Funeraria</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
           <t>Ord. 040 de 2001</t>
@@ -2164,13 +6467,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
           <t>Ord. 040 de 2001</t>
@@ -2203,13 +6499,6 @@
           <t>Categoría Hacienda</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -2242,13 +6531,6 @@
           <t>Categoría Institucional</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
           <t>BICN</t>
@@ -2281,13 +6563,6 @@
           <t>Categoría Institucional</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -2320,13 +6595,6 @@
           <t>Categoría Ferroviaria</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -2359,13 +6627,6 @@
           <t>Categoría Ferroviaria</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993 - 040 de 2001</t>
@@ -2398,13 +6659,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -2437,13 +6691,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993 - 040 de 2001</t>
@@ -2476,13 +6723,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -2515,18 +6755,11 @@
           <t>Categoria Museos</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>http://turismo.huila.gov.co/museo/54</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2554,18 +6787,11 @@
           <t>Categoria Museos</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>http://turismo.huila.gov.co/museo/57</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2593,22 +6819,16 @@
           <t>Categoria Museos</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
           <t>Resena Historica | El museo nace por la necesidad de la Gobernacion de mostrar y proyectar las obras adquiridas hasta el momento por los artistas de nuestro Departamento. | El dia trece (13) de Marzo de 2001 por invitacion del secretario de Cultura se realizo la socializacion del Museo con la participacion de los Medios de Comunicacion, Academicos, Representantes de las ONGs, Municipios, Universidades, etc., Firmandose acta de intension para la creacion del mismo. | En el mes de Junio de 2002 el Gobierno Departamental presenta ante Planeacion el proyecto denominado Consolidacion y puesta en marcha del Museo de Arte Contemporaneo del Huila MACH. | Efectivamente y con la participacion aproximada de 300 personas se dio apertura al Museo de Arte Contemporaneo del Huila MACH, el dia diez (10) de Octubre de 2003 | Con el objetivo que la comunidad artistica, los amantes del arte y comunidad en general expresen sus aportes e inquietudes se ha creado un Blog donde se indica ademas de la historia las diferentes programaciones del Museo. | Servicios | La Secretaria de Cultura y Turismo del Huila, ofrece a los artistas de la region tres salas de exposicion, para que muestren su produccion, permitiendo que la comunidad educativa, los docentes, los investigadores y publico en general conozcan el patrimonio en el area de las artes visuales. Tambien se posibilita el intercambio con artistas de otras regiones. Se ofrecen visitas guiadas especializadas a estudiantes de colegios, universidades, publico en general y turistas que visitan la ciudad. | Ubicacion | Municipio de Neiva Carrera 5 # 21 - 81 Centro Cultural y de convenciones Jose Eustasio Rivera, segundo piso. Tipo de coleccion: Pinturas, Grabados, Fotografi­as, Moviles, Ensambles, y Esculturas de Artistas Huilenses Nacionales e Internacionales. No. de obras: 310 | Horario al publico Lunes a Viernes. 9:00 am - 12:00 m. 2:30 pm - 6:00 pm. | La entrada libre.</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>https://www.huila.gov.co/cultura-y-turismo/publicaciones/6141/museo-arte-contemporaneo-del-huila/</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2636,18 +6856,11 @@
           <t>Categoria Museos</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>http://turismo.huila.gov.co/museo/6</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2675,18 +6888,11 @@
           <t>Categoria Museos</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>http://turismo.huila.gov.co/museo/8</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2714,22 +6920,16 @@
           <t>Categoria Museos</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
           <t>HISTORIA El Museo de la huilensidad “JORGE VILLAMIL”, es el resultado del esfuerzo de un grupo de huilenses que por iniciativa de la Reina Nacional del Bambuco Larissa Fernanda Calderon Ortiz, decidio impulsar su creacion como un legado de su reinado. La idea de impulsarlo acogio la recomendacion que al respecto hizo en el ano 2000 la Corporacion Huila Futuro, evitando asi que otros departamentos, como el Quindio y Antioquia, le arrebatara a este Departamento ese derecho teniendo en cuenta que el Maestro Villamil es huilense. | El punto de partida para desarrollar el proyecto fue la constitucion de la Fundacion por la Huilensidad “JORGE VILLAMIL”, con la mision de promoverlo, impulsarlo y adelantar las gestiones para montarlo y ponerlo al servicio del fortalecimiento de la cultura regional y el turismo del Huila. El Museo empezo a concretarse con la donacion que el Maestro le hizo a la Fundacion de la coleccion de 382 piezas museologicas y de la destinacion que hicieron los estudios, se elaboro el Guion y se efectuo el montaje por expertos contratados para el efecto. | A la coleccion de piezas donadas por el Maestro Villamil se le agregaron las aportadas por la Fundacion y por particulares. Uno de los casos mas significativos lo fue el aporte de la replica, construida a escala, de la que fue la casa de la hacienda del Cedral, que fuera de su padre, Jorge Villamil Ortega, en donde el compositor se crio y abrevo de los peones de la finca cafetera y de los campesinos de la zona de Vegalarga en el municipio de Neiva, las tonadas y el estilo autoctono de muchas de las 180 canciones que ha compuesto. Precisamente una de sus mas famosas canciones es “Hacienda del Cedral” que el artista evoca cuando canta “te llevo en mi cantar/ te llevo yo en mi recuerdo/ en esta tierra naci/ en ella tambien vivi/ y en ella quiero mi entierro”. | UBICACION | Tercer piso del Bloque Cultural del Centro de Convenciones "Jose Eustasio Rivera", Neiva. Directora: Mari­a Ruth Arboleda</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>https://www.huila.gov.co/cultura-y-turismo/publicaciones/6139/sala-museo-jorge-villamil/</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2757,13 +6957,6 @@
           <t>Categoría Teatro</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993 Ord. 040 de 2001</t>
@@ -2796,13 +6989,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -2835,13 +7021,6 @@
           <t>Categoría Urbanística</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993 - 040 de 2001</t>
@@ -2874,13 +7053,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993 - 040 de 2001</t>
@@ -2913,13 +7085,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -2952,13 +7117,6 @@
           <t>Categoría Hacienda</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
           <t>Ord. 007 de 1993 - 040 de 2001</t>
@@ -2991,13 +7149,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
           <t>Ord. 007 de 1993 - 040 de 2001</t>
@@ -3030,13 +7181,6 @@
           <t>Categoría Urbanística</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993 - 040 de 2001</t>
@@ -3069,13 +7213,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993 - 040 de 2001</t>
@@ -3108,13 +7245,6 @@
           <t>Categoría Infraestructura</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993 Ord. 040 de 2001</t>
@@ -3147,13 +7277,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -3186,13 +7309,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -3225,13 +7341,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -3264,13 +7373,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
           <t>Ord. 007 de 1993 - 040 de 2001</t>
@@ -3303,13 +7405,6 @@
           <t>Categoría Institucional</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -3342,13 +7437,6 @@
           <t>Categoría Domestica</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -3381,13 +7469,6 @@
           <t>Categoría Domestica</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -3420,13 +7501,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
           <t>Ord. 040 de 2001</t>
@@ -3459,13 +7533,6 @@
           <t>Categoría Urbanística</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993</t>
@@ -3498,7 +7565,6 @@
           <t>Ecoturismo, Turismo Rural, Turismo de Aventura</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr"/>
       <c r="G70" t="n">
         <v>13120</v>
       </c>
@@ -3527,7 +7593,6 @@
           <t>https://www.acotur.co/es/asociado/chaska-tours-colombia-23</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3555,18 +7620,11 @@
           <t>Categoria Museos</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>http://turismo.huila.gov.co/museo/4</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3594,13 +7652,6 @@
           <t>Categoría Institucional</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
           <t>Ord. 040 de 2001</t>
@@ -3633,13 +7684,6 @@
           <t>Categoría Institucional</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
           <t>Ord. 040 de 2001</t>
@@ -3672,7 +7716,6 @@
           <t>Avistamiento de aves, Ecoturismo, Turismo Rural</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr"/>
       <c r="G74" t="n">
         <v>43416</v>
       </c>
@@ -3681,7 +7724,6 @@
           <t>Hotel campestre, familiar; nuestro mayor compromiso es la sostenibilidad y la agricultura regenerativa, enfocados en el amor por la naturaleza y la producción de comida saludable que queremos que conozca Colombia y el mundo entero; senderos con variedad de frutos cítricos, cacao, aguacate y delicioso café orgánico para deleitar.</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
           <t>hotelcampestreeltriunfo@gmail.com</t>
@@ -3697,7 +7739,6 @@
           <t>https://www.acotur.co/es/asociado/hotel-campestre-el-triunfo-448</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3725,13 +7766,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
           <t>Ord. 007 de 1993 - 040 de 2001</t>
@@ -3759,8 +7793,6 @@
           <t>Huila</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
       <c r="G76" t="n">
         <v>91271</v>
       </c>
@@ -3769,19 +7801,16 @@
           <t>Agencia enfocada en el desarrollo de experiencias alternativas, sostenibles, cooperativas con un alto nivel de exigencia profesional de toda la cadena de valor</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
           <t>ouilatintravel@gmail.com</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>https://www.acotur.co/es/asociado/oui-latin-travel-682</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3809,13 +7838,6 @@
           <t>Categoría Arqueológica</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
           <t>Ord. 040 de 2001</t>
@@ -3843,8 +7865,6 @@
           <t>Huila</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
       <c r="G78" t="n">
         <v>74347</v>
       </c>
@@ -3873,7 +7893,6 @@
           <t>https://www.acotur.co/es/asociado/tierra-activa-eco-hotel-y-agroturismo-179</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3901,13 +7920,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
           <t>Ord. 040 de 2001</t>
@@ -3940,18 +7952,11 @@
           <t>Categoria Museos</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>http://turismo.huila.gov.co/museo/58</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3979,13 +7984,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -4018,13 +8016,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -4057,13 +8048,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
           <t>Ord. 040 de 2001</t>
@@ -4096,13 +8080,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -4135,13 +8112,6 @@
           <t>Categoría Institucional</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993 - 040 de 2001</t>
@@ -4174,13 +8144,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -4213,13 +8176,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -4252,13 +8208,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992 BICN</t>
@@ -4291,13 +8240,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -4330,13 +8272,6 @@
           <t>Categoría Domestica</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993</t>
@@ -4369,13 +8304,6 @@
           <t>Categoría Institucional</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993</t>
@@ -4408,13 +8336,6 @@
           <t>Categoría Ferroviaria</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
           <t>BICN</t>
@@ -4447,13 +8368,6 @@
           <t>Categoría Ferroviaria</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993</t>
@@ -4486,13 +8400,6 @@
           <t>Categoría Ferroviaria</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993 - BICN</t>
@@ -4525,13 +8432,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
           <t>Ord. 040 de 2001</t>
@@ -4564,13 +8464,6 @@
           <t>Categoría Religiosa</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -4603,13 +8496,6 @@
           <t>Categoría Domestica</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
           <t>Ord. 007 de 1992</t>
@@ -4642,13 +8528,6 @@
           <t>Categoría Urbanística</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
           <t>Ord. 025 de 1993 - 040 de 2001</t>
@@ -4790,9 +8669,6 @@
       <c r="C3" t="n">
         <v>60845</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>rinconchavez.jhonjairo@gmail.com</t>
@@ -5054,8 +8930,6 @@
           <t>Somos una empresa especializada en aviturismo y fotografia de fauna silvestre, operamos a nivel nacional y nuestro mercado es el turimos receptivo.</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>birdingparadisecolombia@gmail.com</t>
@@ -5111,7 +8985,6 @@
           <t>trumanadventure@gmail.com</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>https://www.acotur.co/es/asociado/truman-adventure-230</t>
